--- a/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
+++ b/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,762 +20,1002 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="252">
-  <si>
-    <t>EOE-081</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>MR. G K NAVEEN KUMAR</t>
-  </si>
-  <si>
-    <t>EOE -083</t>
-  </si>
-  <si>
-    <t>MR. PRADEEP JAIN</t>
-  </si>
-  <si>
-    <t>NCE-011</t>
-  </si>
-  <si>
-    <t>CE-1</t>
-  </si>
-  <si>
-    <t>MR. PRIYANK SRIVASTAVA</t>
-  </si>
-  <si>
-    <t>NCE-023</t>
-  </si>
-  <si>
-    <t>MS. ANAMIKA YADAV</t>
-  </si>
-  <si>
-    <t>ECE-052</t>
-  </si>
-  <si>
-    <t>MS. NIKITA JAISWAL</t>
-  </si>
-  <si>
-    <t>ECE-064</t>
-  </si>
-  <si>
-    <t>PROF.B.B.PRASAD</t>
-  </si>
-  <si>
-    <t>NHU-401</t>
-  </si>
-  <si>
-    <t>MS.SHILPI SINGH</t>
-  </si>
-  <si>
-    <t>NAS-401</t>
-  </si>
-  <si>
-    <t>DR. SANJAY TIWARI</t>
-  </si>
-  <si>
-    <t>NCE-401</t>
-  </si>
-  <si>
-    <t>MR. JAY KUMAR VARSHANEY</t>
-  </si>
-  <si>
-    <t>NCE-402</t>
-  </si>
-  <si>
-    <t>MR. HIMANSHU PANWAR</t>
-  </si>
-  <si>
-    <t>NCE-403</t>
-  </si>
-  <si>
-    <t>MS.KAJAL GOEL</t>
-  </si>
-  <si>
-    <t>NCE-404</t>
-  </si>
-  <si>
-    <t>MS.ANCHAL NEGI</t>
-  </si>
-  <si>
-    <t>AUC-002</t>
-  </si>
-  <si>
-    <t>MR.RUCHIN GUPTA</t>
-  </si>
-  <si>
-    <t>CE-2</t>
-  </si>
-  <si>
-    <t>NHU-601</t>
-  </si>
-  <si>
-    <t>MR. VISHAL GUPTA</t>
-  </si>
-  <si>
-    <t>NCE-601</t>
-  </si>
-  <si>
-    <t>MR.KRANTI KR. DEWANGAN</t>
-  </si>
-  <si>
-    <t>NCE-602</t>
-  </si>
-  <si>
-    <t>MR. SURAJ KUMAR</t>
-  </si>
-  <si>
-    <t>NCE-603</t>
-  </si>
-  <si>
-    <t>MS. SHIKHA MITTAL</t>
-  </si>
-  <si>
-    <t>ECE-801</t>
-  </si>
-  <si>
-    <t>MR. SPARSH JOHARI</t>
-  </si>
-  <si>
-    <t>NEC-409</t>
-  </si>
-  <si>
-    <t>CS-1</t>
-  </si>
-  <si>
-    <t>Ms. Sakshi Mittal</t>
-  </si>
-  <si>
-    <t>NCS-401</t>
-  </si>
-  <si>
-    <t>Ms. Reema Aswani</t>
-  </si>
-  <si>
-    <t>NCS-402</t>
-  </si>
-  <si>
-    <t>Ms. Prachi Maheshwari</t>
-  </si>
-  <si>
-    <t>NCS-403</t>
-  </si>
-  <si>
-    <t>Ms. Nishu Bansal</t>
-  </si>
-  <si>
-    <t>NHU-402</t>
-  </si>
-  <si>
-    <t>Dr. Swati Agarwal</t>
-  </si>
-  <si>
-    <t>AUC-001</t>
-  </si>
-  <si>
-    <t>Mr. Shashank Sahu</t>
-  </si>
-  <si>
-    <t>CS-2</t>
-  </si>
-  <si>
-    <t>Ms. Sakshi Agarwal</t>
-  </si>
-  <si>
-    <t>Mr. Ajay Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Vivek Singh Verma</t>
-  </si>
-  <si>
-    <t>CS-3</t>
-  </si>
-  <si>
-    <t>Mr. Vikas Goel</t>
-  </si>
-  <si>
-    <t>Mr. Vikas Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Vikas Roshan</t>
-  </si>
-  <si>
-    <t>Dr. B.K. Sharma</t>
-  </si>
-  <si>
-    <t>NCS-601</t>
-  </si>
-  <si>
-    <t>Ms. Neeti Pahuja</t>
-  </si>
-  <si>
-    <t>NCS-602</t>
-  </si>
-  <si>
-    <t>NCS-603</t>
-  </si>
-  <si>
-    <t>Mr. B.N. Pandey</t>
-  </si>
-  <si>
-    <t>Mr. Deepak Rai</t>
-  </si>
-  <si>
-    <t>Ms. Shiva Tyagi</t>
-  </si>
-  <si>
-    <t>Prof. B.M. Kalra</t>
-  </si>
-  <si>
-    <t>Dr. Inderjeet Kaur</t>
-  </si>
-  <si>
-    <t>Ms. Kirti Seth</t>
-  </si>
-  <si>
-    <t>Dr. Sanghmitra</t>
-  </si>
-  <si>
-    <t>ECS-801</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Ms. Sonam Gupta</t>
-  </si>
-  <si>
-    <t>ECS-084</t>
-  </si>
-  <si>
-    <t>Mr. Dharmendra Kumar</t>
-  </si>
-  <si>
-    <t>ECS-087</t>
-  </si>
-  <si>
-    <t>Mr. Arun Kumar Yadav</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Dr. Sunita Yadav</t>
-  </si>
-  <si>
-    <t>Dr. Sachin Kumar</t>
-  </si>
-  <si>
-    <t>NCS-063</t>
-  </si>
-  <si>
-    <t>Ms. Shubhangi Rastogi</t>
-  </si>
-  <si>
-    <t>NCS-069</t>
-  </si>
-  <si>
-    <t>Dr. Mamta Bhusry</t>
-  </si>
-  <si>
-    <t>NOE-046</t>
-  </si>
-  <si>
-    <t>DR. SHWETA PRAKASH</t>
-  </si>
-  <si>
-    <t>NOE-043</t>
-  </si>
-  <si>
-    <t>DR. VIMLESH MISHRA</t>
-  </si>
-  <si>
-    <t>NOE-044</t>
-  </si>
-  <si>
-    <t>DR. ANIRUDDH SINGH</t>
-  </si>
-  <si>
-    <t>NOE-041</t>
-  </si>
-  <si>
-    <t>MS. KOMAL JUNEJA</t>
-  </si>
-  <si>
-    <t>MS.NUPUR MITTAL</t>
-  </si>
-  <si>
-    <t>EOE-084</t>
-  </si>
-  <si>
-    <t>MR.GAURAV SRIVASTAVA</t>
-  </si>
-  <si>
-    <t>EOE-083</t>
-  </si>
-  <si>
-    <t>MR. NEELESH KUMAR SHARMA</t>
-  </si>
-  <si>
-    <t>EOE-085</t>
-  </si>
-  <si>
-    <t>MR.ANIRUDH GAUTAM</t>
-  </si>
-  <si>
-    <t>IT - 1</t>
-  </si>
-  <si>
-    <t>Dr. Akash Kumar</t>
-  </si>
-  <si>
-    <t>NEC-408</t>
-  </si>
-  <si>
-    <t>Ms. Deepali Singh</t>
-  </si>
-  <si>
-    <t>Mr. Pancham Singh</t>
-  </si>
-  <si>
-    <t>Ms. Shikha Jain</t>
-  </si>
-  <si>
-    <t>NIT-401</t>
-  </si>
-  <si>
-    <t>Ms. Tahira Mazumder</t>
-  </si>
-  <si>
-    <t>Ms. Neetu Sharma</t>
-  </si>
-  <si>
-    <t>IT - 2</t>
-  </si>
-  <si>
-    <t>Ms.Shikha Jain</t>
-  </si>
-  <si>
-    <t>Ms. Tahira Mazumdar</t>
-  </si>
-  <si>
-    <t>Dr. Anu Chaudhary</t>
-  </si>
-  <si>
-    <t>Ms. Punam Kumari</t>
-  </si>
-  <si>
-    <t>Ms.Yogita Chhabra</t>
-  </si>
-  <si>
-    <t>Dr.Akash Kumar</t>
-  </si>
-  <si>
-    <t>NIT-064</t>
-  </si>
-  <si>
-    <t>Mr.Sushil Bagi</t>
-  </si>
-  <si>
-    <t>NIT-067</t>
-  </si>
-  <si>
-    <t>Mr.Rahul Sharma</t>
-  </si>
-  <si>
-    <t>Dr. Pooja Arora</t>
-  </si>
-  <si>
-    <t>Ms. Yogita Chhabra</t>
-  </si>
-  <si>
-    <t>Dr. Akash kumar</t>
-  </si>
-  <si>
-    <t>Ms. Aditi Chaudhary</t>
-  </si>
-  <si>
-    <t>ECS-701</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Mr. Sushil Bagi</t>
-  </si>
-  <si>
-    <t>EIT-082</t>
-  </si>
-  <si>
-    <t>Mr. Narendra Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Kapil Tomar</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Mr. J. K.Seth</t>
-  </si>
-  <si>
-    <t>Ms. Swati Goel</t>
-  </si>
-  <si>
-    <t>Prof. R.P.Saw</t>
-  </si>
-  <si>
-    <t>NEE 201</t>
-  </si>
-  <si>
-    <t>IT 2</t>
-  </si>
-  <si>
-    <t>Mr. Atul Sood</t>
-  </si>
-  <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>Ms. Navjyoti Sharma</t>
-  </si>
-  <si>
-    <t>NEE 401</t>
-  </si>
-  <si>
-    <t>EN-1</t>
-  </si>
-  <si>
-    <t>Mr. Anurag</t>
-  </si>
-  <si>
-    <t>NEE-401</t>
-  </si>
-  <si>
-    <t>EN-2</t>
-  </si>
-  <si>
-    <t>MS. VANI BHARGAVA</t>
-  </si>
-  <si>
-    <t>NEE 402</t>
-  </si>
-  <si>
-    <t>MS. NUPUR</t>
-  </si>
-  <si>
-    <t>NEE-402</t>
-  </si>
-  <si>
-    <t>MR. ANURAG</t>
-  </si>
-  <si>
-    <t>NEE 403</t>
-  </si>
-  <si>
-    <t> MS. MUGDHA</t>
-  </si>
-  <si>
-    <t>NEE-403</t>
-  </si>
-  <si>
-    <t>MR. ARUN</t>
-  </si>
-  <si>
-    <t>NEC 409</t>
-  </si>
-  <si>
-    <t>MS. SAKSHI</t>
-  </si>
-  <si>
-    <t>NEE-409</t>
-  </si>
-  <si>
-    <t>MR. ANUP </t>
-  </si>
-  <si>
-    <t>NHU 402</t>
-  </si>
-  <si>
-    <t>AUC 001</t>
-  </si>
-  <si>
-    <t>MS. SWEETY</t>
-  </si>
-  <si>
-    <t>MR. PANKAJ</t>
-  </si>
-  <si>
-    <t>NEE 601</t>
-  </si>
-  <si>
-    <t>MS. ANUBHA</t>
-  </si>
-  <si>
-    <t>NEE-601</t>
-  </si>
-  <si>
-    <t>NEE 602</t>
-  </si>
-  <si>
-    <t>MR. ANKIT </t>
-  </si>
-  <si>
-    <t>NEE-602</t>
-  </si>
-  <si>
-    <t>MR. G. K. NAVEEN</t>
-  </si>
-  <si>
-    <t>NEN 603</t>
-  </si>
-  <si>
-    <t>MS. ANU GOEL</t>
-  </si>
-  <si>
-    <t>NHU 601</t>
-  </si>
-  <si>
-    <t>MR. VIKAS ROSHAN</t>
-  </si>
-  <si>
-    <t>EEC 809</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>MS. RICHA </t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>NEN 012</t>
-  </si>
-  <si>
-    <t>MR. PARVEEN KUMAR DHULL</t>
-  </si>
-  <si>
-    <t>NEN 024</t>
-  </si>
-  <si>
-    <t>MR. RAHUL DIXIT</t>
-  </si>
-  <si>
-    <t>MR. D. K. SINGH</t>
-  </si>
-  <si>
-    <t>EEE-052</t>
-  </si>
-  <si>
-    <t>MR. LALITESH</t>
-  </si>
-  <si>
-    <t>EEE-051</t>
-  </si>
-  <si>
-    <t>MR DEEPAK NARANG</t>
-  </si>
-  <si>
-    <t>EEC 068</t>
-  </si>
-  <si>
-    <t>DR. BHUPAL SINGH</t>
-  </si>
-  <si>
-    <t>EEC 069</t>
-  </si>
-  <si>
-    <t>PROF. P. K. CHOPRA</t>
-  </si>
-  <si>
-    <t>Mr. G.K.Naveen</t>
-  </si>
-  <si>
-    <t>Mr. Pradeep Jain</t>
-  </si>
-  <si>
-    <t>Mr. Gaurav Srivastava</t>
-  </si>
-  <si>
-    <t>I,J</t>
-  </si>
-  <si>
-    <t>Mr. Amit Sharma</t>
-  </si>
-  <si>
-    <t>Prof. Ashiv Shah</t>
-  </si>
-  <si>
-    <t>EEC-801</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Mr. Jitender Chhabra</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>EEC-802</t>
-  </si>
-  <si>
-    <t>Mr. Naresh Kumar</t>
-  </si>
-  <si>
-    <t>EEC-035</t>
-  </si>
-  <si>
-    <t>Mr. Sachin Kumar Gupta</t>
-  </si>
-  <si>
-    <t>Dr. R.V. Purohit</t>
-  </si>
-  <si>
-    <t>Ms. Nupur</t>
-  </si>
-  <si>
-    <t>Dr. R.K. Rai</t>
-  </si>
-  <si>
-    <t>Mr. Neelesh Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Mr. Gaurav</t>
-  </si>
-  <si>
-    <t>Mr. Vikas</t>
-  </si>
-  <si>
-    <t> Mr. Som Ashutosh</t>
-  </si>
-  <si>
-    <t>NEC-401</t>
-  </si>
-  <si>
-    <t>EI-1</t>
-  </si>
-  <si>
-    <t>Ms. Vidushi                        </t>
-  </si>
-  <si>
-    <t>NEC-402</t>
-  </si>
-  <si>
-    <t>Ms. Rajni Parashar</t>
-  </si>
-  <si>
-    <t>NEC-403</t>
-  </si>
-  <si>
-    <t>Ms. Tukur Gupta</t>
-  </si>
-  <si>
-    <t>NEC-404</t>
-  </si>
-  <si>
-    <t>Ms. Anshta Aggarwal</t>
-  </si>
-  <si>
-    <t>Mr. Naveen Kumar Saini</t>
-  </si>
-  <si>
-    <t>NIC-601</t>
-  </si>
-  <si>
-    <t>Ms. Shweta Singhal</t>
-  </si>
-  <si>
-    <t>NIC-602</t>
-  </si>
-  <si>
-    <t>Ms. Apra Gupta</t>
-  </si>
-  <si>
-    <t>NEC-609</t>
-  </si>
-  <si>
-    <t>Ms. Neeti Gupta</t>
-  </si>
-  <si>
-    <t>Mr. Vishal Gupta</t>
-  </si>
-  <si>
-    <t>EIC-801</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Ms. Jai Shree Gupta</t>
-  </si>
-  <si>
-    <t>EIC-802</t>
-  </si>
-  <si>
-    <t>Mr. Ashish Gupta</t>
-  </si>
-  <si>
-    <t>NEC-011</t>
-  </si>
-  <si>
-    <t>Mr. Hunny Pahuja</t>
-  </si>
-  <si>
-    <t>NEC-023</t>
-  </si>
-  <si>
-    <t>EIC-033</t>
-  </si>
-  <si>
-    <t>Ms. Neha Garg</t>
-  </si>
-  <si>
-    <t>Ms. Komal</t>
-  </si>
-  <si>
-    <t>Ms. Bandana Sharma</t>
-  </si>
-  <si>
-    <t>Dr. Abhishek</t>
-  </si>
-  <si>
-    <t>Dr. Shweta</t>
-  </si>
-  <si>
-    <t>Mr. G.K. Naveen</t>
-  </si>
-  <si>
-    <t>Mr. Ashiv Shah</t>
-  </si>
-  <si>
-    <t>EOE 081</t>
-  </si>
-  <si>
-    <t>DR. A. K. RAI</t>
-  </si>
-  <si>
-    <t>E0E 083</t>
-  </si>
-  <si>
-    <t>MR. NEELESH</t>
-  </si>
-  <si>
-    <t>EOE 084</t>
-  </si>
-  <si>
-    <t>MR. GAURAV SRIVASTAVA</t>
-  </si>
-  <si>
-    <t>EOE 085</t>
-  </si>
-  <si>
-    <t>MR. SOM ASHUTOSH</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="332">
+  <si>
+    <t xml:space="preserve">EOE-081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. G K NAVEEN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE -083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PRADEEP JAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PRIYANK SRIVASTAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. ANAMIKA YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. NIKITA JAISWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF.B.B.PRASAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SHILPI SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. SANJAY TIWARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. JAY KUMAR VARSHANEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. HIMANSHU PANWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.KAJAL GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.ANCHAL NEGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.RUCHIN GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. VISHAL GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.KRANTI KR. DEWANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. SURAJ KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SHIKHA MITTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. SPARSH JOHARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sakshi Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Reema Aswani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Prachi Maheshwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nishu Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Swati Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Shashank Sahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sakshi Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ajay Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vivek Singh Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Roshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. B.K. Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neeti Pahuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. B.N. Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Deepak Rai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shiva Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. B.M. Kalra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Inderjeet Kaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Kirti Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sanghmitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sonam Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dharmendra Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Arun Kumar Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sunita Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sachin Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shubhangi Rastogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Mamta Bhusry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. SHWETA PRAKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. VIMLESH MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. ANIRUDDH SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. KOMAL JUNEJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NUPUR MITTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.GAURAV SRIVASTAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE-083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. NEELESH KUMAR SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE-085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.ANIRUDH GAUTAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. R. K. RAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Akash Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Deepali Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pancham Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shikha Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Tahira Mazumder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neetu Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Shikha Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Tahira Mazumdar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Anu Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Punam Kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Yogita Chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Akash Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Sushil Bagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Rahul Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Pooja Arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Yogita Chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Akash kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Aditi Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sushil Bagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIT-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Narendra Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Kapil Tomar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. J. K.Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Swati Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. R.P.Saw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Atul Sood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Navjyoti Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Anurag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. VANI BHARGAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. NUPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ANURAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MS. MUGDHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ARUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC 409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SAKSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ANUP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SWEETY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PANKAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. ANUBHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ANKIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. G. K. NAVEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. ANU GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU 601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. VIKAS ROSHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC 809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. RICHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN 012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PARVEEN KUMAR DHULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN 024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. RAHUL DIXIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. D. K. SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. LALITESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE-051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR DEEPAK NARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC 068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. BHUPAL SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC 069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF. P. K. CHOPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. G.K.Naveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pradeep Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I,J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Ashiv Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jitender Chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Naresh Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sachin Kumar Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R.V. Purohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nupur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R.K. Rai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neelesh Kumar Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. Som Ashutosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vidushi                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rajni Parashar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Tukur Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Anshta Aggarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Naveen Kumar Saini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shweta Singhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Apra Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neeti Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vishal Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Jai Shree Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC-802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashish Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Hunny Pahuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC-033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neha Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Komal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Bandana Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Shweta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. G.K. Naveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashiv Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE 081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. A. K. RAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0E 083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. NEELESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE 084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. GAURAV SRIVASTAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE 085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. SOM ASHUTOSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Devesh Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN-024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. DK Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARVEEN KUMAR DHULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.BHUPAL SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN -1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. V. K. Parashar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ritesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nidhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ravindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dinanath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT 2(61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Navjyoti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec - I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec – I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sec – J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Pooja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Deepti Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Apoorv Vats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dilip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neha Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. S.L. Kapoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Lalitesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neeraj Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashutosh Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dheeraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Arun Kr Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neelesh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Chanchal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. SHILPI SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Swati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ajay Pratap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. DEVENDRA SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Bhartendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neha Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. SWETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. H.S. Chaursiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Devendra Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Kr Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mayank Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ankur Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EME 051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vishal Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EME 064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Nirmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EME 801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Shubham Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. R. K. Singh</t>
   </si>
 </sst>
 </file>
@@ -783,9 +1023,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -808,16 +1048,16 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Trebuchet MS"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -841,26 +1081,24 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -877,7 +1115,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -982,8 +1220,36 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF313739"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF313739"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF313739"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF313739"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF313739"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF313739"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF313739"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1007,16 +1273,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1025,35 +1287,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,63 +1359,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1161,24 +1403,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1233,7 +1526,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF313739"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -1248,16 +1541,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E215"/>
+  <dimension ref="A2:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A216" activeCellId="0" sqref="A216"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A253" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B265" activeCellId="0" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.2857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,26 +2512,37 @@
         <v>100</v>
       </c>
     </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="12" t="s">
-        <v>101</v>
-      </c>
       <c r="C92" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2244,10 +2550,10 @@
         <v>42</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2255,21 +2561,21 @@
         <v>44</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2277,10 +2583,10 @@
         <v>50</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,21 +2594,21 @@
         <v>48</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,10 +2616,10 @@
         <v>42</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2321,21 +2627,21 @@
         <v>44</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,10 +2649,10 @@
         <v>50</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,10 +2660,10 @@
         <v>61</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,10 +2671,10 @@
         <v>63</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2376,10 +2682,10 @@
         <v>64</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,32 +2693,32 @@
         <v>29</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2420,10 +2726,10 @@
         <v>61</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,10 +2737,10 @@
         <v>63</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2442,10 +2748,10 @@
         <v>64</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,54 +2759,54 @@
         <v>29</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>126</v>
-      </c>
       <c r="C116" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,32 +2814,32 @@
         <v>77</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C118" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2541,128 +2847,128 @@
         <v>77</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>30</v>
@@ -2673,7 +2979,7 @@
         <v>48</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>30</v>
@@ -2681,13 +2987,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2695,297 +3001,297 @@
         <v>50</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="20" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D147" s="21"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B149" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B150" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="20" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B151" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C151" s="20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B152" s="24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C152" s="20" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C153" s="27" t="s">
+      <c r="A153" s="16" t="s">
         <v>127</v>
       </c>
+      <c r="B153" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="28" t="s">
+      <c r="A154" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B154" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B154" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C154" s="29" t="s">
-        <v>129</v>
+      <c r="C154" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="28" t="s">
+      <c r="A155" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B155" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C155" s="28" t="s">
+      <c r="B155" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="15" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="B156" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B157" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C157" s="28" t="s">
+      <c r="B157" s="18" t="s">
         <v>133</v>
       </c>
+      <c r="C157" s="15" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B158" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="C158" s="28" t="s">
-        <v>134</v>
+      <c r="B158" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C160" s="28" t="s">
         <v>133</v>
+      </c>
+      <c r="C160" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,10 +3299,10 @@
         <v>77</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3004,628 +3310,2134 @@
         <v>77</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="30" t="s">
+      <c r="A163" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C163" s="30" t="s">
-        <v>190</v>
+        <v>128</v>
+      </c>
+      <c r="C163" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="30" t="s">
+      <c r="A164" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C164" s="30" t="s">
-        <v>190</v>
+        <v>133</v>
+      </c>
+      <c r="C164" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="30" t="s">
+      <c r="A165" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C165" s="30" t="s">
-        <v>191</v>
+        <v>128</v>
+      </c>
+      <c r="C165" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="30" t="s">
+      <c r="A166" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C166" s="30" t="s">
-        <v>191</v>
+        <v>133</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="30" t="s">
+      <c r="A167" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C167" s="27" t="s">
-        <v>192</v>
+        <v>128</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="30" t="s">
+      <c r="A168" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C168" s="27" t="s">
-        <v>192</v>
+        <v>133</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="30" t="s">
+      <c r="A169" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C169" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C170" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C171" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D171" s="29"/>
+      <c r="E171" s="29"/>
+    </row>
+    <row r="172" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C172" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D172" s="29"/>
+      <c r="E172" s="29"/>
+    </row>
+    <row r="173" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C173" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+    </row>
+    <row r="174" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D174" s="29"/>
+      <c r="E174" s="29"/>
+    </row>
+    <row r="175" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B175" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="C175" s="30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C176" s="30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C177" s="31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B181" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C181" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B182" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B183" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C183" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B184" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C184" s="31" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C185" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D185" s="30"/>
+      <c r="E185" s="30"/>
+    </row>
+    <row r="186" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B186" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D186" s="30"/>
+      <c r="E186" s="30"/>
+    </row>
+    <row r="187" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C187" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="D187" s="30"/>
+      <c r="E187" s="30"/>
+    </row>
+    <row r="188" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C188" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D188" s="30"/>
+      <c r="E188" s="30"/>
+    </row>
+    <row r="189" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D189" s="30"/>
+      <c r="E189" s="30"/>
+    </row>
+    <row r="190" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C190" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D190" s="30"/>
+      <c r="E190" s="30"/>
+    </row>
+    <row r="191" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B191" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C191" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="D191" s="30"/>
+      <c r="E191" s="30"/>
+    </row>
+    <row r="192" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C192" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="D192" s="30"/>
+      <c r="E192" s="30"/>
+    </row>
+    <row r="193" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C193" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D193" s="30"/>
+      <c r="E193" s="30"/>
+    </row>
+    <row r="194" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C194" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D194" s="30"/>
+      <c r="E194" s="30"/>
+    </row>
+    <row r="195" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C195" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D195" s="30"/>
+      <c r="E195" s="30"/>
+    </row>
+    <row r="196" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C196" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="D196" s="30"/>
+      <c r="E196" s="30"/>
+    </row>
+    <row r="197" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C197" s="32" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C198" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C199" s="32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B200" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C200" s="31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B201" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C201" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B202" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C202" s="31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B203" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="C203" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C204" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B205" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C205" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="C169" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="30" t="s">
+    </row>
+    <row r="206" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B206" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C206" s="31" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B171" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C171" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D171" s="34"/>
-      <c r="E171" s="34"/>
-    </row>
-    <row r="172" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="B172" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C172" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D172" s="34"/>
-      <c r="E172" s="34"/>
-    </row>
-    <row r="173" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" s="32" t="s">
-        <v>197</v>
-      </c>
-      <c r="C173" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D173" s="34"/>
-      <c r="E173" s="34"/>
-    </row>
-    <row r="174" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B174" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="C174" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D174" s="34"/>
-      <c r="E174" s="34"/>
-    </row>
-    <row r="175" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B175" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C175" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="31" t="s">
-        <v>202</v>
-      </c>
-      <c r="B176" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="C176" s="35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C177" s="36" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C178" s="36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B179" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C179" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B180" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C180" s="36" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B181" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C181" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B182" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C182" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B183" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="C183" s="36" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B184" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="C184" s="36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B185" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C185" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D185" s="35"/>
-      <c r="E185" s="35"/>
-    </row>
-    <row r="186" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="B186" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C186" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D186" s="35"/>
-      <c r="E186" s="35"/>
-    </row>
-    <row r="187" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="31" t="s">
-        <v>216</v>
-      </c>
-      <c r="B187" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C187" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="D187" s="35"/>
-      <c r="E187" s="35"/>
-    </row>
-    <row r="188" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C188" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D188" s="35"/>
-      <c r="E188" s="35"/>
-    </row>
-    <row r="189" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B189" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D189" s="35"/>
-      <c r="E189" s="35"/>
-    </row>
-    <row r="190" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B190" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C190" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D190" s="35"/>
-      <c r="E190" s="35"/>
-    </row>
-    <row r="191" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="B191" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="D191" s="35"/>
-      <c r="E191" s="35"/>
-    </row>
-    <row r="192" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B192" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D192" s="35"/>
-      <c r="E192" s="35"/>
-    </row>
-    <row r="193" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B193" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C193" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="D193" s="35"/>
-      <c r="E193" s="35"/>
-    </row>
-    <row r="194" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B194" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C194" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
-    </row>
-    <row r="195" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="B195" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C195" s="37" t="s">
+      <c r="B207" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="D195" s="35"/>
-      <c r="E195" s="35"/>
-    </row>
-    <row r="196" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B196" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C196" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="D196" s="35"/>
-      <c r="E196" s="35"/>
-    </row>
-    <row r="197" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B197" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B198" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="C198" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="B199" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="C199" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B200" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C200" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B201" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C201" s="36" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B202" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C202" s="36" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="B203" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="C203" s="36" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B204" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C204" s="36" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B205" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C205" s="36" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B206" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C206" s="36" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B207" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="C207" s="36" t="s">
-        <v>243</v>
+      <c r="C207" s="31" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B215" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B221" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B222" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B223" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B224" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B225" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C225" s="0" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B226" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="C226" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B227" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B228" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B229" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B230" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B231" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="C231" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B232" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="C232" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B233" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C233" s="34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B234" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="C234" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B235" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C235" s="34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B236" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C236" s="34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="33"/>
+      <c r="B237" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C237" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B238" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C238" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="33"/>
+      <c r="B239" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C239" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B240" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C240" s="34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="33"/>
+      <c r="B241" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C241" s="34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B242" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C242" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="33"/>
+      <c r="B243" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C243" s="34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B244" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C244" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="33"/>
+      <c r="B245" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C245" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B246" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C246" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="37"/>
+      <c r="B247" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C247" s="34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B248" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C248" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="33"/>
+      <c r="B249" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C249" s="34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B250" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C250" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="33"/>
+      <c r="B251" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C251" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B252" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C252" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="33"/>
+      <c r="B253" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C253" s="34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B254" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C254" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B255" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C255" s="34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A256" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B256" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="C215" s="0" t="s">
-        <v>251</v>
-      </c>
-    </row>
+      <c r="C256" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="36"/>
+      <c r="B257" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C257" s="34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A258" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B258" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A259" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B259" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C259" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B260" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C260" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A261" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B261" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C261" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A262" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B262" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C262" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A263" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B263" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C263" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A264" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B264" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C264" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A265" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B265" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C265" s="38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A266" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B266" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C266" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A267" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B267" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C267" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A268" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B268" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C268" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B269" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C269" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C270" s="40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B271" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C271" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B272" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C272" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C273" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B274" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C274" s="38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B275" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C275" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B276" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C276" s="38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B277" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C277" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B278" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" s="41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B279" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C279" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B280" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C280" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B281" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C281" s="38" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B283" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C284" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B285" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C285" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B286" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C286" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B287" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C288" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="33"/>
+      <c r="B289" s="33"/>
+    </row>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B291" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C291" s="33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B292" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C292" s="33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B293" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C293" s="33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B294" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C294" s="33" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C295" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B296" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B297" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C297" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B298" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C298" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B299" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C299" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B300" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B301" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B302" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C302" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B303" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B304" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B305" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C305" s="33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B306" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C306" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B307" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="B308" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C308" s="33" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B309" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C309" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B310" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C310" s="43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C311" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B312" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C312" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C313" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="C314" s="43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B315" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C315" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B316" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C316" s="43" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B317" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C317" s="43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B318" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C318" s="43" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B319" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C319" s="43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B320" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C320" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B321" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C321" s="43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B322" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="B323" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C323" s="43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B324" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C324" s="43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B325" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C325" s="43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="36" t="s">
+        <v>314</v>
+      </c>
+      <c r="B326" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C326" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A327" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B327" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C327" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B328" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328" s="33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B329" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="C329" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B330" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C330" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B331" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C331" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B332" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C332" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="B333" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C333" s="33" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="B334" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C334" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="B335" s="36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C335" s="33" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="36"/>
+      <c r="B336" s="36"/>
+      <c r="C336" s="36"/>
+      <c r="D336" s="36"/>
+      <c r="E336" s="36"/>
+      <c r="F336" s="33"/>
+    </row>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="33"/>
+      <c r="B337" s="33"/>
+      <c r="C337" s="33"/>
+      <c r="D337" s="33"/>
+      <c r="E337" s="33"/>
+      <c r="F337" s="33"/>
+    </row>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="36"/>
+      <c r="B338" s="36"/>
+      <c r="C338" s="36"/>
+      <c r="D338" s="36"/>
+      <c r="E338" s="36"/>
+      <c r="F338" s="33"/>
+    </row>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="36"/>
+      <c r="B339" s="33"/>
+      <c r="C339" s="36"/>
+      <c r="D339" s="36"/>
+      <c r="E339" s="36"/>
+      <c r="F339" s="43"/>
+    </row>
+    <row r="340" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="44"/>
+      <c r="B340" s="44"/>
+      <c r="C340" s="44"/>
+      <c r="D340" s="36"/>
+      <c r="E340" s="36"/>
+      <c r="F340" s="45"/>
+    </row>
+    <row r="341" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="44"/>
+      <c r="B341" s="44"/>
+      <c r="C341" s="44"/>
+      <c r="D341" s="36"/>
+      <c r="E341" s="36"/>
+      <c r="F341" s="43"/>
+    </row>
+    <row r="342" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="44"/>
+      <c r="B342" s="44"/>
+      <c r="C342" s="44"/>
+      <c r="D342" s="36"/>
+      <c r="E342" s="36"/>
+      <c r="F342" s="43"/>
+    </row>
+    <row r="343" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="44"/>
+      <c r="B343" s="44"/>
+      <c r="C343" s="44"/>
+      <c r="D343" s="36"/>
+      <c r="E343" s="36"/>
+      <c r="F343" s="43"/>
+    </row>
+    <row r="344" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="44"/>
+      <c r="B344" s="44"/>
+      <c r="C344" s="44"/>
+      <c r="D344" s="44"/>
+      <c r="E344" s="44"/>
+      <c r="F344" s="44"/>
+    </row>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="36"/>
+      <c r="B345" s="36"/>
+      <c r="C345" s="33"/>
+      <c r="D345" s="36"/>
+      <c r="E345" s="33"/>
+      <c r="F345" s="33"/>
+    </row>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="36"/>
+      <c r="B346" s="36"/>
+      <c r="C346" s="36"/>
+      <c r="D346" s="36"/>
+      <c r="E346" s="36"/>
+      <c r="F346" s="33"/>
+    </row>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="33"/>
+      <c r="B347" s="33"/>
+      <c r="C347" s="33"/>
+      <c r="D347" s="33"/>
+      <c r="E347" s="33"/>
+      <c r="F347" s="33"/>
+    </row>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="36"/>
+      <c r="B348" s="36"/>
+      <c r="C348" s="36"/>
+      <c r="D348" s="36"/>
+      <c r="E348" s="36"/>
+      <c r="F348" s="33"/>
+    </row>
+    <row r="349" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="44"/>
+      <c r="B349" s="44"/>
+      <c r="C349" s="44"/>
+      <c r="D349" s="36"/>
+      <c r="E349" s="36"/>
+      <c r="F349" s="36"/>
+    </row>
+    <row r="350" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="44"/>
+      <c r="B350" s="44"/>
+      <c r="C350" s="44"/>
+      <c r="D350" s="44"/>
+      <c r="E350" s="44"/>
+      <c r="F350" s="44"/>
+    </row>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="36"/>
+      <c r="B351" s="36"/>
+      <c r="C351" s="33"/>
+      <c r="D351" s="36"/>
+      <c r="E351" s="33"/>
+      <c r="F351" s="33"/>
+    </row>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="36"/>
+      <c r="B352" s="36"/>
+      <c r="C352" s="36"/>
+      <c r="D352" s="36"/>
+      <c r="E352" s="36"/>
+      <c r="F352" s="33"/>
+    </row>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="33"/>
+      <c r="B353" s="33"/>
+      <c r="C353" s="33"/>
+      <c r="D353" s="33"/>
+      <c r="E353" s="33"/>
+      <c r="F353" s="33"/>
+    </row>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="36"/>
+      <c r="B354" s="36"/>
+      <c r="C354" s="36"/>
+      <c r="D354" s="36"/>
+      <c r="E354" s="36"/>
+      <c r="F354" s="33"/>
+    </row>
+    <row r="355" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="44"/>
+      <c r="B355" s="44"/>
+      <c r="C355" s="44"/>
+      <c r="D355" s="36"/>
+      <c r="E355" s="36"/>
+      <c r="F355" s="36"/>
+    </row>
+    <row r="356" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="44"/>
+      <c r="B356" s="44"/>
+      <c r="C356" s="44"/>
+      <c r="D356" s="44"/>
+      <c r="E356" s="44"/>
+      <c r="F356" s="44"/>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="36"/>
+      <c r="B357" s="36"/>
+      <c r="C357" s="33"/>
+      <c r="D357" s="36"/>
+      <c r="E357" s="33"/>
+      <c r="F357" s="33"/>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="36"/>
+      <c r="B358" s="36"/>
+      <c r="C358" s="36"/>
+      <c r="D358" s="36"/>
+      <c r="E358" s="36"/>
+      <c r="F358" s="33"/>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="33"/>
+      <c r="B359" s="33"/>
+      <c r="C359" s="33"/>
+      <c r="D359" s="33"/>
+      <c r="E359" s="33"/>
+      <c r="F359" s="33"/>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="36"/>
+      <c r="B360" s="36"/>
+      <c r="C360" s="36"/>
+      <c r="D360" s="36"/>
+      <c r="E360" s="36"/>
+      <c r="F360" s="33"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A236:A237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="A244:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A251"/>
+    <mergeCell ref="A252:A253"/>
+    <mergeCell ref="A256:A257"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
+++ b/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
@@ -5,11 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="false" name="NEC" vbProcedure="false">Sheet1!$C$113</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,1059 +23,1384 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="351">
-  <si>
-    <t>EOE-081</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>MR. G K NAVEEN KUMAR</t>
-  </si>
-  <si>
-    <t>EOE -083</t>
-  </si>
-  <si>
-    <t>MR. PRADEEP JAIN</t>
-  </si>
-  <si>
-    <t>NCE-011</t>
-  </si>
-  <si>
-    <t>CE-1</t>
-  </si>
-  <si>
-    <t>MR. PRIYANK SRIVASTAVA</t>
-  </si>
-  <si>
-    <t>NCE-023</t>
-  </si>
-  <si>
-    <t>MS. ANAMIKA YADAV</t>
-  </si>
-  <si>
-    <t>ECE-052</t>
-  </si>
-  <si>
-    <t>MS. NIKITA JAISWAL</t>
-  </si>
-  <si>
-    <t>ECE-064</t>
-  </si>
-  <si>
-    <t>PROF.B.B.PRASAD</t>
-  </si>
-  <si>
-    <t>NHU-401</t>
-  </si>
-  <si>
-    <t>MS.SHILPI SINGH</t>
-  </si>
-  <si>
-    <t>NAS-401</t>
-  </si>
-  <si>
-    <t>DR. SANJAY TIWARI</t>
-  </si>
-  <si>
-    <t>NCE-401</t>
-  </si>
-  <si>
-    <t>MR. JAY KUMAR VARSHANEY</t>
-  </si>
-  <si>
-    <t>NCE-402</t>
-  </si>
-  <si>
-    <t>MR. HIMANSHU PANWAR</t>
-  </si>
-  <si>
-    <t>NCE-403</t>
-  </si>
-  <si>
-    <t>MS.KAJAL GOEL</t>
-  </si>
-  <si>
-    <t>NCE-404</t>
-  </si>
-  <si>
-    <t>MS.ANCHAL NEGI</t>
-  </si>
-  <si>
-    <t>AUC-002</t>
-  </si>
-  <si>
-    <t>MR.RUCHIN GUPTA</t>
-  </si>
-  <si>
-    <t>CE-2</t>
-  </si>
-  <si>
-    <t>NHU-601</t>
-  </si>
-  <si>
-    <t>MR. VISHAL GUPTA</t>
-  </si>
-  <si>
-    <t>NCE-601</t>
-  </si>
-  <si>
-    <t>MR.KRANTI KR. DEWANGAN</t>
-  </si>
-  <si>
-    <t>NCE-602</t>
-  </si>
-  <si>
-    <t>MR. SURAJ KUMAR</t>
-  </si>
-  <si>
-    <t>NCE-603</t>
-  </si>
-  <si>
-    <t>MS. SHIKHA MITTAL</t>
-  </si>
-  <si>
-    <t>ECE-801</t>
-  </si>
-  <si>
-    <t>MR. SPARSH JOHARI</t>
-  </si>
-  <si>
-    <t>NEC-409</t>
-  </si>
-  <si>
-    <t>CS-1</t>
-  </si>
-  <si>
-    <t>Ms. Sakshi Mittal</t>
-  </si>
-  <si>
-    <t>NCS-401</t>
-  </si>
-  <si>
-    <t>Ms. Reema Aswani</t>
-  </si>
-  <si>
-    <t>NCS-402</t>
-  </si>
-  <si>
-    <t>Ms. Prachi Maheshwari</t>
-  </si>
-  <si>
-    <t>NCS-403</t>
-  </si>
-  <si>
-    <t>Ms. Nishu Bansal</t>
-  </si>
-  <si>
-    <t>NHU-402</t>
-  </si>
-  <si>
-    <t>Dr. Swati Agarwal</t>
-  </si>
-  <si>
-    <t>AUC-001</t>
-  </si>
-  <si>
-    <t>Mr. Shashank Sahu</t>
-  </si>
-  <si>
-    <t>CS-2</t>
-  </si>
-  <si>
-    <t>Ms. Sakshi Agarwal</t>
-  </si>
-  <si>
-    <t>Mr. Ajay Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Vivek Singh Verma</t>
-  </si>
-  <si>
-    <t>CS-3</t>
-  </si>
-  <si>
-    <t>Mr. Vikas Goel</t>
-  </si>
-  <si>
-    <t>Mr. Vikas Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Vikas Roshan</t>
-  </si>
-  <si>
-    <t>Dr. B.K. Sharma</t>
-  </si>
-  <si>
-    <t>NCS-601</t>
-  </si>
-  <si>
-    <t>Ms. Neeti Pahuja</t>
-  </si>
-  <si>
-    <t>NCS-602</t>
-  </si>
-  <si>
-    <t>NCS-603</t>
-  </si>
-  <si>
-    <t>Mr. B.N. Pandey</t>
-  </si>
-  <si>
-    <t>Mr. Deepak Rai</t>
-  </si>
-  <si>
-    <t>Ms. Shiva Tyagi</t>
-  </si>
-  <si>
-    <t>Prof. B.M. Kalra</t>
-  </si>
-  <si>
-    <t>Dr. Inderjeet Kaur</t>
-  </si>
-  <si>
-    <t>Ms. Kirti Seth</t>
-  </si>
-  <si>
-    <t>Dr. Sanghmitra</t>
-  </si>
-  <si>
-    <t>ECS-801</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Ms. Sonam Gupta</t>
-  </si>
-  <si>
-    <t>ECS-084</t>
-  </si>
-  <si>
-    <t>Mr. Dharmendra Kumar</t>
-  </si>
-  <si>
-    <t>ECS-087</t>
-  </si>
-  <si>
-    <t>Mr. Arun Kumar Yadav</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Dr. Sunita Yadav</t>
-  </si>
-  <si>
-    <t>Dr. Sachin Kumar</t>
-  </si>
-  <si>
-    <t>NCS-063</t>
-  </si>
-  <si>
-    <t>Ms. Shubhangi Rastogi</t>
-  </si>
-  <si>
-    <t>NCS-069</t>
-  </si>
-  <si>
-    <t>Dr. Mamta Bhusry</t>
-  </si>
-  <si>
-    <t>NOE-046</t>
-  </si>
-  <si>
-    <t>DR. SHWETA PRAKASH</t>
-  </si>
-  <si>
-    <t>NOE-043</t>
-  </si>
-  <si>
-    <t>DR. VIMLESH MISHRA</t>
-  </si>
-  <si>
-    <t>NOE-044</t>
-  </si>
-  <si>
-    <t>DR. ANIRUDDH SINGH</t>
-  </si>
-  <si>
-    <t>NOE-041</t>
-  </si>
-  <si>
-    <t>MS. KOMAL JUNEJA</t>
-  </si>
-  <si>
-    <t>MS.NUPUR MITTAL</t>
-  </si>
-  <si>
-    <t>EOE-084</t>
-  </si>
-  <si>
-    <t>MR.GAURAV SRIVASTAVA</t>
-  </si>
-  <si>
-    <t>EOE-083</t>
-  </si>
-  <si>
-    <t>MR. NEELESH KUMAR SHARMA</t>
-  </si>
-  <si>
-    <t>EOE-085</t>
-  </si>
-  <si>
-    <t>MR.ANIRUDH GAUTAM</t>
-  </si>
-  <si>
-    <t>IT - 1</t>
-  </si>
-  <si>
-    <t>Dr. Akash Kumar</t>
-  </si>
-  <si>
-    <t>NEC-408</t>
-  </si>
-  <si>
-    <t>Ms. Deepali Singh</t>
-  </si>
-  <si>
-    <t>Mr. Pancham Singh</t>
-  </si>
-  <si>
-    <t>Ms. Shikha Jain</t>
-  </si>
-  <si>
-    <t>NIT-401</t>
-  </si>
-  <si>
-    <t>Ms. Tahira Mazumder</t>
-  </si>
-  <si>
-    <t>Ms. Neetu Sharma</t>
-  </si>
-  <si>
-    <t>IT - 2</t>
-  </si>
-  <si>
-    <t>Ms.Shikha Jain</t>
-  </si>
-  <si>
-    <t>Ms. Tahira Mazumdar</t>
-  </si>
-  <si>
-    <t>Dr. Anu Chaudhary</t>
-  </si>
-  <si>
-    <t>Ms. Punam Kumari</t>
-  </si>
-  <si>
-    <t>Ms.Yogita Chhabra</t>
-  </si>
-  <si>
-    <t>Dr.Akash Kumar</t>
-  </si>
-  <si>
-    <t>NIT-064</t>
-  </si>
-  <si>
-    <t>Mr.Sushil Bagi</t>
-  </si>
-  <si>
-    <t>NIT-067</t>
-  </si>
-  <si>
-    <t>Mr.Rahul Sharma</t>
-  </si>
-  <si>
-    <t>Dr. Pooja Arora</t>
-  </si>
-  <si>
-    <t>Ms. Yogita Chhabra</t>
-  </si>
-  <si>
-    <t>Dr. Akash kumar</t>
-  </si>
-  <si>
-    <t>IT-2</t>
-  </si>
-  <si>
-    <t>Ms. Aditi Chaudhary</t>
-  </si>
-  <si>
-    <t>ECS-701</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Mr. Sushil Bagi</t>
-  </si>
-  <si>
-    <t>EIT-082</t>
-  </si>
-  <si>
-    <t>Mr. Narendra Kumar</t>
-  </si>
-  <si>
-    <t>Mr. Kapil Tomar</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Mr. J. K.Seth</t>
-  </si>
-  <si>
-    <t>Ms. Swati Goel</t>
-  </si>
-  <si>
-    <t>Prof. R.P.Saw</t>
-  </si>
-  <si>
-    <t>NEE 201</t>
-  </si>
-  <si>
-    <t>IT 2</t>
-  </si>
-  <si>
-    <t>Mr. Atul Sood</t>
-  </si>
-  <si>
-    <t>EI</t>
-  </si>
-  <si>
-    <t>Ms. Navjyoti Sharma</t>
-  </si>
-  <si>
-    <t>NEE 401</t>
-  </si>
-  <si>
-    <t>EN-1</t>
-  </si>
-  <si>
-    <t>Mr. Anurag</t>
-  </si>
-  <si>
-    <t>NEE-401</t>
-  </si>
-  <si>
-    <t>EN-2</t>
-  </si>
-  <si>
-    <t>MS. VANI BHARGAVA</t>
-  </si>
-  <si>
-    <t>NEE 402</t>
-  </si>
-  <si>
-    <t>MS. NUPUR</t>
-  </si>
-  <si>
-    <t>NEE-402</t>
-  </si>
-  <si>
-    <t>MR. ANURAG</t>
-  </si>
-  <si>
-    <t>NEE 403</t>
-  </si>
-  <si>
-    <t> MS. MUGDHA</t>
-  </si>
-  <si>
-    <t>NEE-403</t>
-  </si>
-  <si>
-    <t>MR. ARUN</t>
-  </si>
-  <si>
-    <t>NEC 409</t>
-  </si>
-  <si>
-    <t>MS. SAKSHI</t>
-  </si>
-  <si>
-    <t>NEE-409</t>
-  </si>
-  <si>
-    <t>MR. ANUP </t>
-  </si>
-  <si>
-    <t>NHU 402</t>
-  </si>
-  <si>
-    <t>AUC 001</t>
-  </si>
-  <si>
-    <t>MS. SWEETY</t>
-  </si>
-  <si>
-    <t>MR. PANKAJ</t>
-  </si>
-  <si>
-    <t>NEE 601</t>
-  </si>
-  <si>
-    <t>MS. ANUBHA</t>
-  </si>
-  <si>
-    <t>NEE-601</t>
-  </si>
-  <si>
-    <t>NEE 602</t>
-  </si>
-  <si>
-    <t>MR. ANKIT </t>
-  </si>
-  <si>
-    <t>NEE-602</t>
-  </si>
-  <si>
-    <t>MR. G. K. NAVEEN</t>
-  </si>
-  <si>
-    <t>NEN 603</t>
-  </si>
-  <si>
-    <t>MS. ANU GOEL</t>
-  </si>
-  <si>
-    <t>NHU 601</t>
-  </si>
-  <si>
-    <t>MR. VIKAS ROSHAN</t>
-  </si>
-  <si>
-    <t>EEC 809</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>MS. RICHA </t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>NEN 012</t>
-  </si>
-  <si>
-    <t>MR. PARVEEN KUMAR DHULL</t>
-  </si>
-  <si>
-    <t>NEN 024</t>
-  </si>
-  <si>
-    <t>MR. RAHUL DIXIT</t>
-  </si>
-  <si>
-    <t>MR. D. K. SINGH</t>
-  </si>
-  <si>
-    <t>EEE-052</t>
-  </si>
-  <si>
-    <t>MR. LALITESH</t>
-  </si>
-  <si>
-    <t>EEE-051</t>
-  </si>
-  <si>
-    <t>MR DEEPAK NARANG</t>
-  </si>
-  <si>
-    <t>EEC 068</t>
-  </si>
-  <si>
-    <t>DR. BHUPAL SINGH</t>
-  </si>
-  <si>
-    <t>EEC 069</t>
-  </si>
-  <si>
-    <t>PROF. P. K. CHOPRA</t>
-  </si>
-  <si>
-    <t>Mr. G.K.Naveen</t>
-  </si>
-  <si>
-    <t>Mr. Pradeep Jain</t>
-  </si>
-  <si>
-    <t>Mr. Gaurav Srivastava</t>
-  </si>
-  <si>
-    <t>Mr. Amit Sharma</t>
-  </si>
-  <si>
-    <t>Prof. Ashiv Shah</t>
-  </si>
-  <si>
-    <t>EEC-801</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Mr. Jitender Chhabra</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>EEC-802</t>
-  </si>
-  <si>
-    <t>Mr. Naresh Kumar</t>
-  </si>
-  <si>
-    <t>EEC-035</t>
-  </si>
-  <si>
-    <t>Mr. Sachin Kumar Gupta</t>
-  </si>
-  <si>
-    <t>Dr. R.V. Purohit</t>
-  </si>
-  <si>
-    <t>Ms. Nupur</t>
-  </si>
-  <si>
-    <t>Dr. R.K. Rai</t>
-  </si>
-  <si>
-    <t>Mr. Neelesh Kumar Sharma</t>
-  </si>
-  <si>
-    <t>Mr. Gaurav</t>
-  </si>
-  <si>
-    <t>Mr. Vikas</t>
-  </si>
-  <si>
-    <t> Mr. Som Ashutosh</t>
-  </si>
-  <si>
-    <t>NEC-401</t>
-  </si>
-  <si>
-    <t>EI-1</t>
-  </si>
-  <si>
-    <t>Ms. Vidushi                        </t>
-  </si>
-  <si>
-    <t>NEC-402</t>
-  </si>
-  <si>
-    <t>Ms. Rajni Parashar</t>
-  </si>
-  <si>
-    <t>NEC-403</t>
-  </si>
-  <si>
-    <t>Ms. Tukur Gupta</t>
-  </si>
-  <si>
-    <t>NEC-404</t>
-  </si>
-  <si>
-    <t>Ms. Anshta Aggarwal</t>
-  </si>
-  <si>
-    <t>Mr. Naveen Kumar Saini</t>
-  </si>
-  <si>
-    <t>NIC-601</t>
-  </si>
-  <si>
-    <t>Ms. Shweta Singhal</t>
-  </si>
-  <si>
-    <t>NIC-602</t>
-  </si>
-  <si>
-    <t>Ms. Apra Gupta</t>
-  </si>
-  <si>
-    <t>NEC-609</t>
-  </si>
-  <si>
-    <t>Ms. Neeti Gupta</t>
-  </si>
-  <si>
-    <t>Mr. Vishal Gupta</t>
-  </si>
-  <si>
-    <t>EIC-801</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Ms. Jai Shree Gupta</t>
-  </si>
-  <si>
-    <t>EIC-802</t>
-  </si>
-  <si>
-    <t>Mr. Ashish Gupta</t>
-  </si>
-  <si>
-    <t>NEC-011</t>
-  </si>
-  <si>
-    <t>Mr. Hunny Pahuja</t>
-  </si>
-  <si>
-    <t>NEC-023</t>
-  </si>
-  <si>
-    <t>EIC-033</t>
-  </si>
-  <si>
-    <t>Ms. Neha Garg</t>
-  </si>
-  <si>
-    <t>Ms. Komal</t>
-  </si>
-  <si>
-    <t>Ms. Bandana Sharma</t>
-  </si>
-  <si>
-    <t>Dr. Abhishek</t>
-  </si>
-  <si>
-    <t>Dr. Shweta</t>
-  </si>
-  <si>
-    <t>Mr. G.K. Naveen</t>
-  </si>
-  <si>
-    <t>Mr. Ashiv Shah</t>
-  </si>
-  <si>
-    <t>EOE 081</t>
-  </si>
-  <si>
-    <t>DR. A. K. RAI</t>
-  </si>
-  <si>
-    <t>E0E 083</t>
-  </si>
-  <si>
-    <t>MR. NEELESH</t>
-  </si>
-  <si>
-    <t>EOE 084</t>
-  </si>
-  <si>
-    <t>MR. GAURAV SRIVASTAVA</t>
-  </si>
-  <si>
-    <t>EOE 085</t>
-  </si>
-  <si>
-    <t>MR. SOM ASHUTOSH</t>
-  </si>
-  <si>
-    <t>EME 801</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Mr. Shubham Chaudhary</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Mr. Ashutosh Yadav</t>
-  </si>
-  <si>
-    <t>EME 051</t>
-  </si>
-  <si>
-    <t>Mr. R. K. Singh</t>
-  </si>
-  <si>
-    <t>EME 064</t>
-  </si>
-  <si>
-    <t>Mr. Mayank Agrawal</t>
-  </si>
-  <si>
-    <t>Mr. Vishal Agrawal</t>
-  </si>
-  <si>
-    <t>Mr. Ankur Tyagi</t>
-  </si>
-  <si>
-    <t>Mr. Nirmal</t>
-  </si>
-  <si>
-    <t>EC-1</t>
-  </si>
-  <si>
-    <t>Ms. Swimpy Pahuja</t>
-  </si>
-  <si>
-    <t>EC-2</t>
-  </si>
-  <si>
-    <t>Ms. Vidushi</t>
-  </si>
-  <si>
-    <t>EC-3</t>
-  </si>
-  <si>
-    <t>Mr. Dushyant Singh</t>
-  </si>
-  <si>
-    <t>Mr. Himanshu Nagpal</t>
-  </si>
-  <si>
-    <t>Ms. Deepali Srivastava</t>
-  </si>
-  <si>
-    <t>Ms. Anshita Agarwal</t>
-  </si>
-  <si>
-    <t>Ms. Shaily Tyagi</t>
-  </si>
-  <si>
-    <t>Dr. Vineet</t>
-  </si>
-  <si>
-    <t>Dr. Sangha Mitra</t>
-  </si>
-  <si>
-    <t>Ms. Chanchal</t>
-  </si>
-  <si>
-    <t>Ms. Charu Aggarwal</t>
-  </si>
-  <si>
-    <t>NEC-601</t>
-  </si>
-  <si>
-    <t>Ms. Nilufar Yasmin</t>
-  </si>
-  <si>
-    <t>NEC-602</t>
-  </si>
-  <si>
-    <t>Mr. Abhijeet Upadhya</t>
-  </si>
-  <si>
-    <t>Ms. Suvarna Mujumdar</t>
-  </si>
-  <si>
-    <t>NEC-603</t>
-  </si>
-  <si>
-    <t>Ms. Ekta Jolly</t>
-  </si>
-  <si>
-    <t>Mr. Ashvani Kumar Mishra</t>
-  </si>
-  <si>
-    <t>Ms. Rahsi</t>
-  </si>
-  <si>
-    <t>Mr. Amit Garg</t>
-  </si>
-  <si>
-    <t>Mr. Devesh Singh</t>
-  </si>
-  <si>
-    <t>EN -1</t>
-  </si>
-  <si>
-    <t>Prof. V. K. Parashar</t>
-  </si>
-  <si>
-    <t>EN 2 </t>
-  </si>
-  <si>
-    <t>Mr. Ritesh</t>
-  </si>
-  <si>
-    <t>CS 2</t>
-  </si>
-  <si>
-    <t>Ms. Nidhi</t>
-  </si>
-  <si>
-    <t>CS 3</t>
-  </si>
-  <si>
-    <t>Mr. Ravindra</t>
-  </si>
-  <si>
-    <t>IT 1</t>
-  </si>
-  <si>
-    <t>Mr. Dinanath</t>
-  </si>
-  <si>
-    <t>EN -2</t>
-  </si>
-  <si>
-    <t>MS. KOMAL</t>
-  </si>
-  <si>
-    <t>NOE 043</t>
-  </si>
-  <si>
-    <t>DR. VIRENDRA</t>
-  </si>
-  <si>
-    <t>NOE 044</t>
-  </si>
-  <si>
-    <t>DR. ABHISHEK PATHAK</t>
-  </si>
-  <si>
-    <t>NOE 046</t>
-  </si>
-  <si>
-    <t>DR. SHWETA PARKASH</t>
-  </si>
-  <si>
-    <t>NAS 401</t>
-  </si>
-  <si>
-    <t>ME-1</t>
-  </si>
-  <si>
-    <t>Dr. Deepti Goel</t>
-  </si>
-  <si>
-    <t>Mr. Apoorv Vats</t>
-  </si>
-  <si>
-    <t>NME401</t>
-  </si>
-  <si>
-    <t>Mr. Dilip</t>
-  </si>
-  <si>
-    <t>NME402</t>
-  </si>
-  <si>
-    <t>Mr. Gaurav Tripathi</t>
-  </si>
-  <si>
-    <t>NHU401</t>
-  </si>
-  <si>
-    <t>Ms. Rashi</t>
-  </si>
-  <si>
-    <t>NME403</t>
-  </si>
-  <si>
-    <t>Ms. Neha Agrawal</t>
-  </si>
-  <si>
-    <t>AUC002</t>
-  </si>
-  <si>
-    <t>Prof. S.L. Kapoor</t>
-  </si>
-  <si>
-    <t>ME-2</t>
-  </si>
-  <si>
-    <t>Mr. Lalitesh</t>
-  </si>
-  <si>
-    <t>Mr. Neeraj Gupta</t>
-  </si>
-  <si>
-    <t>Mr. Dheeraj</t>
-  </si>
-  <si>
-    <t>ME-3</t>
-  </si>
-  <si>
-    <t>Dr. Meenakshi Sinha</t>
-  </si>
-  <si>
-    <t>Mr. Arun Kr Sharma</t>
-  </si>
-  <si>
-    <t>Mr. Neelesh Sharma</t>
-  </si>
-  <si>
-    <t>Ms. SHILPI SINGH</t>
-  </si>
-  <si>
-    <t>NME 014</t>
-  </si>
-  <si>
-    <t>Ms. Swati</t>
-  </si>
-  <si>
-    <t>NME 021</t>
-  </si>
-  <si>
-    <t>Mr. Ajay Pratap</t>
-  </si>
-  <si>
-    <t>NME 602</t>
-  </si>
-  <si>
-    <t>Mr. DEVENDRA SINGH</t>
-  </si>
-  <si>
-    <t>NME 603</t>
-  </si>
-  <si>
-    <t>Mr. Bhartendu</t>
-  </si>
-  <si>
-    <t>NME 604</t>
-  </si>
-  <si>
-    <t>Mr. Neha Agrawal</t>
-  </si>
-  <si>
-    <t>Ms. SWETA</t>
-  </si>
-  <si>
-    <t>Mr. H.S. Chaursiya</t>
-  </si>
-  <si>
-    <t>Mr. Devendra Singh</t>
-  </si>
-  <si>
-    <t>Mr. Amit Kr Tripathi</t>
-  </si>
-  <si>
-    <t>NME-014</t>
-  </si>
-  <si>
-    <t>MS. SWATI</t>
-  </si>
-  <si>
-    <t>MS. SWETA</t>
-  </si>
-  <si>
-    <t>NME-021</t>
-  </si>
-  <si>
-    <t>AJAY PRATAP</t>
-  </si>
-  <si>
-    <t>H. S. CHAURSIYA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="456">
+  <si>
+    <t xml:space="preserve">EOE-081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. G K NAVEEN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE-083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PRADEEP JAIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PRIYANK SRIVASTAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. ANAMIKA YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. NIKITA JAISWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF.B.B.PRASAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SHILPI SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. SANJAY TIWARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. JAY KUMAR VARSHANEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. HIMANSHU PANWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.KAJAL GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.ANCHAL NEGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.RUCHIN GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. VISHAL GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.KRANTI KR. DEWANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. SURAJ KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SHIKHA MITTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. SPARSH JOHARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sakshi Mittal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Reema Aswani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Prachi Maheshwari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nishu Bansal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Swati Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Shashank Sahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sakshi Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ajay Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vivek Singh Verma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Roshan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. B.K. Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neeti Pahuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. B.N. Pandey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Deepak Rai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shiva Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. B.M. Kalra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Inderjeet Kaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Kirti Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sanghmitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sonam Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dharmendra Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Arun Kumar Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sunita Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sachin Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shubhangi Rastogi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Mamta Bhusry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. SHWETA PRAKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. VIMLESH MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. ANIRUDDH SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE-041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. KOMAL JUNEJA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NUPUR MITTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE-084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.GAURAV SRIVASTAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. NEELESH KUMAR SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE-085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.ANIRUDH GAUTAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Akash Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Deepali Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pancham Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shikha Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Tahira Mazumder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neetu Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT - 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Shikha Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Tahira Mazumdar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Anu Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Punam Kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Yogita Chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Akash Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT-064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Sushil Bagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT-067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr.Rahul Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Pooja Arora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Yogita Chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Akash kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Aditi Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECS-701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sushil Bagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIT-082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Narendra Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Kapil Tomar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. J. K.Seth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Swati Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. R.P.Saw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Atul Sood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Navjyoti Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Anurag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. VANI BHARGAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. NUPUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ANURAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MS. MUGDHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ARUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC 409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SAKSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ANUP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU 402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SWEETY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PANKAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. ANUBHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. ANKIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. G. K. NAVEEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. ANU GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU 601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. VIKAS ROSHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC 809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. RICHA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN 012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. PARVEEN KUMAR DHULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEN 024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. RAHUL DIXIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. D. K. SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE-052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. LALITESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEE-051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR DEEPAK NARANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC 068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. BHUPAL SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC 069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF. P. K. CHOPRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. G.K.Naveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pradeep Jain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Ashiv Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jitender Chhabra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Naresh Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEC-035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sachin Kumar Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R.V. Purohit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nupur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. R.K. Rai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neelesh Kumar Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr. Som Ashutosh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EI-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vidushi                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rajni Parashar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Tukur Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Anshta Aggarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Naveen Kumar Saini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shweta Singhal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIC-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Apra Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neeti Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vishal Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC-801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Jai Shree Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC-802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashish Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Hunny Pahuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIC-033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neha Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Komal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Bandana Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Abhishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Shweta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. G.K. Naveen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashiv Shah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE 081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. A. K. RAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0E 083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. NEELESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE 084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. GAURAV SRIVASTAVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EOE 085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR. SOM ASHUTOSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EME 801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Shubham Chaudhary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashutosh Yadav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EME 051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. R. K. Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EME 064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mayank Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vishal Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ankur Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Nirmal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Swimpy Pahuja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vidushi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dushyant Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Himanshu Nagpal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Deepali Srivastava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Anshita Agarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Shaily Tyagi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Vineet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sangha Mitra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Chanchal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Charu Aggarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nilufar Yasmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Abhijeet Upadhya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Suvarna Mujumdar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Ekta Jolly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ashvani Kumar Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rahsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Garg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Devesh Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. V. K. Parashar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ritesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nidhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ravindra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dinanath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. KOMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE 043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. VIRENDRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE 044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. ABHISHEK PATHAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOE 046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR. SHWETA PARKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Deepti Goel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Apoorv Vats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dilip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NHU401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rashi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neha Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUC002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. S.L. Kapoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Lalitesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neeraj Gupta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dheeraj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Meenakshi Sinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Arun Kr Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neelesh Sharma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. SHILPI SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Swati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ajay Pratap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. DEVENDRA SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Bhartendu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME 604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Neha Agrawal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. SWETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. H.S. Chaursiya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Devendra Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Kr Tripathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SWATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS. SWETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAY PRATAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H. S. CHAURSIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.TARUNJEET SINGH    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SHWETA PRAKASH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SHIWANI SINGHAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEC-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SEEMA GARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.RITESH SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF.I.P.SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEE-251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEW-251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.N.K.MITTAL/
+MR.VISHAL AGARWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.B.B.VERMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.VIRENDER KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.PARUL VERMA    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.UMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NIDHI MOURYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.PARUL VERMA    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.N.K.MITTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.C.P.PANDEY   S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SACHIN KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NITYA SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.RICHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.RAVINDER KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.PALLAB BISWAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.H.S.CHAURASIYA/
+MR.ASHUTOSH YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SHIMLI VERMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.BANDANA SHARMA     S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.DINA NATH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.RAJAT GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.BANDANA SHARMA     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.BHARTENDU+MS.NEHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SANJAY KUMAR TIWARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.VIKAS RATHI     S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NITI MAHESHWARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.ATUL SOOD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.VIKAS RATHI     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.VISHAL AGARWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.PANKAJ AGGRAWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.VIMLESH MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NITI MAHESHWARI    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF.V.K.PARASHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NITI MAHESHWARI    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NEHA AGARWAL +
+MR.BHARTENDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.M.K.GOYAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.ABHISHEK PATHAK     S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.PARUL VERMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.ABHISHEK PATHAK     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.N.K.MITTAL/
+MR.R.V.MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.RUCHIRA GOEL    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.ANIRUDDH SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF.P.K.SHARDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NAVJYOTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NEHA AGARWAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.RUCHIRA GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.VIKAS RATHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.MONIKA AGARWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SANDEEP GUPTA    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME-202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.VIVEK PANSARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.DEEPTI SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAS-254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCS-251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NME-252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCE-251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.VINEET SRIVASTAVA S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SONALI PATLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.A.K.DUBEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NEETHU SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. MAMTA BHUSRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.AMIT KR SHARMA / 
+MR,DEVENDER SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.DEEPTI GOEL    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.BANDANA SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NEETU SHARMA    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SANDEEP GUPTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.GAJESH CHAUHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.RAJEEV SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.NEETU SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.R.V.MISHRA / 
+MR.PALLAB BISWAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.PANKAJ AGGRAWAL     S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.ANUPAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.R.V.MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SHAILY TYAGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SWEETY AGARWAL    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SWEETY AGARWAL    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.PALLAB BISWAS +
+MR.AMIT KUMAR SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.TARUN JEET SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SACHIN KUMAR      S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SHRUTI SINHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.SUMIT SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.AMIT KR SHARMA/
+MR.SHUBHAM CHAUDHARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.SHIMLI VERMA    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.SWEETY AGARWAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.ANIMESH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROF.G.P.DUBEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.AJAY KUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.A.K.DUBEY/MR.GAJESH CHAUHAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MS.NEHA AGARWAL/
+MR.NEERAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR.MEENAKSHI SINHA    S/I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.ANIMESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.AMIT KUMAR SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.DILIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR.SHUBHAM CHAUDHARY
+</t>
   </si>
 </sst>
 </file>
@@ -1080,13 +1408,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1104,43 +1433,50 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Trebuchet MS"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1148,6 +1484,33 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1164,7 +1527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1306,8 +1669,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1331,16 +1708,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1349,35 +1722,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1421,23 +1794,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1525,16 +1898,51 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1604,16 +2012,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F376"/>
+  <dimension ref="A2:F538"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A352" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C376" activeCellId="0" sqref="C376"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A408" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B312" activeCellId="0" sqref="B312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2531,46 +2941,46 @@
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2578,21 +2988,21 @@
         <v>48</v>
       </c>
       <c r="B91" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C92" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2600,10 +3010,10 @@
         <v>42</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2611,21 +3021,21 @@
         <v>44</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>107</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2633,10 +3043,10 @@
         <v>50</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,21 +3054,21 @@
         <v>48</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>103</v>
-      </c>
-      <c r="B98" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,10 +3076,10 @@
         <v>42</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2677,21 +3087,21 @@
         <v>44</v>
       </c>
       <c r="B100" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C100" s="13" t="s">
         <v>110</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,10 +3109,10 @@
         <v>50</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2710,10 +3120,10 @@
         <v>61</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,10 +3131,10 @@
         <v>63</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,10 +3142,10 @@
         <v>64</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,32 +3153,32 @@
         <v>29</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B108" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,10 +3186,10 @@
         <v>61</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,10 +3197,10 @@
         <v>63</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,10 +3208,10 @@
         <v>64</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2809,54 +3219,54 @@
         <v>29</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>124</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>119</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B115" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="C115" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="C115" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,32 +3274,32 @@
         <v>77</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B118" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="C118" s="19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,128 +3307,128 @@
         <v>77</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="C121" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B123" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="C123" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B124" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="C124" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C126" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" s="0" t="s">
         <v>151</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C128" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C130" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C131" s="0" t="s">
         <v>30</v>
@@ -3029,7 +3439,7 @@
         <v>48</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132" s="0" t="s">
         <v>30</v>
@@ -3037,13 +3447,13 @@
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" s="0" t="s">
         <v>160</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,231 +3461,231 @@
         <v>50</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="0" t="s">
         <v>166</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="0" t="s">
         <v>168</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="0" t="s">
         <v>170</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B143" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="C143" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C145" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" s="22" t="s">
         <v>180</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C147" s="22" t="s">
-        <v>181</v>
       </c>
       <c r="D147" s="21"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="23" t="s">
         <v>183</v>
-      </c>
-      <c r="B149" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C149" s="23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" s="23" t="s">
         <v>185</v>
-      </c>
-      <c r="B150" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B151" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C151" s="20" t="s">
         <v>187</v>
-      </c>
-      <c r="B151" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B152" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" s="20" t="s">
         <v>189</v>
-      </c>
-      <c r="B152" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B153" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="C153" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C154" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="17" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,32 +3693,32 @@
         <v>77</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B156" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,32 +3726,32 @@
         <v>77</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,10 +3759,10 @@
         <v>77</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3360,10 +3770,10 @@
         <v>77</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3371,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C163" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,32 +3792,32 @@
         <v>0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C164" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="25" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C165" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="25" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C166" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3415,10 +3825,10 @@
         <v>95</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C167" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3426,117 +3836,117 @@
         <v>95</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C168" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C169" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C170" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C171" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B172" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B172" s="27" t="s">
+      <c r="C172" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="C172" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="D172" s="29"/>
       <c r="E172" s="29"/>
     </row>
     <row r="173" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D173" s="29"/>
       <c r="E173" s="29"/>
     </row>
     <row r="174" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C174" s="28" t="s">
         <v>200</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C174" s="28" t="s">
-        <v>201</v>
       </c>
       <c r="D174" s="29"/>
       <c r="E174" s="29"/>
     </row>
     <row r="175" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C175" s="28" t="s">
         <v>200</v>
-      </c>
-      <c r="B175" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C175" s="28" t="s">
-        <v>201</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29"/>
     </row>
     <row r="176" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C176" s="30" t="s">
         <v>202</v>
-      </c>
-      <c r="B176" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C176" s="30" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B177" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3555,32 +3965,32 @@
         <v>0</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="31" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C180" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="31" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,10 +3998,10 @@
         <v>95</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3599,82 +4009,82 @@
         <v>95</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B186" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B186" s="26" t="s">
+      <c r="C186" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="C186" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="D186" s="30"/>
       <c r="E186" s="30"/>
     </row>
     <row r="187" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C187" s="32" t="s">
         <v>214</v>
-      </c>
-      <c r="B187" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C187" s="32" t="s">
-        <v>215</v>
       </c>
       <c r="D187" s="30"/>
       <c r="E187" s="30"/>
     </row>
     <row r="188" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B188" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C188" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="D188" s="30"/>
       <c r="E188" s="30"/>
     </row>
     <row r="189" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C189" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C189" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="D189" s="30"/>
       <c r="E189" s="30"/>
@@ -3684,7 +4094,7 @@
         <v>14</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C190" s="32" t="s">
         <v>59</v>
@@ -3697,49 +4107,49 @@
         <v>50</v>
       </c>
       <c r="B191" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D191" s="30"/>
       <c r="E191" s="30"/>
     </row>
     <row r="192" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C192" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C192" s="32" t="s">
-        <v>222</v>
       </c>
       <c r="D192" s="30"/>
       <c r="E192" s="30"/>
     </row>
     <row r="193" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C193" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="B193" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C193" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="D193" s="30"/>
       <c r="E193" s="30"/>
     </row>
     <row r="194" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C194" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="B194" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C194" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="D194" s="30"/>
       <c r="E194" s="30"/>
@@ -3749,71 +4159,71 @@
         <v>29</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C195" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D195" s="30"/>
       <c r="E195" s="30"/>
     </row>
     <row r="196" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B196" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="B196" s="26" t="s">
+      <c r="C196" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="C196" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="D196" s="30"/>
       <c r="E196" s="30"/>
     </row>
     <row r="197" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C197" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="B197" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C197" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="D197" s="30"/>
       <c r="E197" s="30"/>
     </row>
     <row r="198" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C198" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="B198" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C198" s="32" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B199" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C199" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C200" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="B200" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C200" s="32" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3821,10 +4231,10 @@
         <v>92</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,10 +4242,10 @@
         <v>88</v>
       </c>
       <c r="B202" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,10 +4253,10 @@
         <v>90</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3854,10 +4264,10 @@
         <v>86</v>
       </c>
       <c r="B204" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3865,21 +4275,21 @@
         <v>0</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="31" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3887,250 +4297,250 @@
         <v>95</v>
       </c>
       <c r="B207" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="B209" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C209" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C210" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C211" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="C212" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C213" s="0" t="s">
         <v>244</v>
-      </c>
-      <c r="B213" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C213" s="0" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C214" s="0" t="s">
         <v>246</v>
-      </c>
-      <c r="B214" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C214" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C215" s="0" t="s">
         <v>248</v>
-      </c>
-      <c r="B215" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C215" s="0" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C216" s="0" t="s">
         <v>250</v>
-      </c>
-      <c r="B216" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="C216" s="0" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B217" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B217" s="29" t="s">
+      <c r="C217" s="27" t="s">
         <v>253</v>
-      </c>
-      <c r="C217" s="27" t="s">
-        <v>254</v>
       </c>
       <c r="D217" s="29"/>
       <c r="E217" s="29"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B218" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="29" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B219" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="C219" s="27" t="s">
         <v>256</v>
-      </c>
-      <c r="C219" s="27" t="s">
-        <v>257</v>
       </c>
       <c r="D219" s="29"/>
       <c r="E219" s="29"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B220" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="C220" s="27" t="s">
         <v>258</v>
-      </c>
-      <c r="B220" s="29" t="s">
-        <v>253</v>
-      </c>
-      <c r="C220" s="27" t="s">
-        <v>259</v>
       </c>
       <c r="D220" s="29"/>
       <c r="E220" s="29"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C221" s="27" t="s">
         <v>260</v>
-      </c>
-      <c r="B221" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C221" s="27" t="s">
-        <v>261</v>
       </c>
       <c r="D221" s="27"/>
       <c r="E221" s="27"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B222" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D222" s="29"/>
       <c r="E222" s="29"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D223" s="27"/>
       <c r="E223" s="27"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B224" s="29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D224" s="29"/>
       <c r="E224" s="29"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B225" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="27"/>
     </row>
     <row r="226" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B226" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C226" s="27" t="s">
         <v>265</v>
-      </c>
-      <c r="C226" s="27" t="s">
-        <v>266</v>
       </c>
       <c r="D226" s="27"/>
       <c r="E226" s="27"/>
     </row>
     <row r="227" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B227" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C227" s="27" t="s">
         <v>267</v>
-      </c>
-      <c r="C227" s="27" t="s">
-        <v>268</v>
       </c>
       <c r="D227" s="27"/>
       <c r="E227" s="27"/>
@@ -4138,13 +4548,13 @@
     </row>
     <row r="228" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B228" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D228" s="27"/>
       <c r="E228" s="27"/>
@@ -4152,13 +4562,13 @@
     </row>
     <row r="229" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B229" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D229" s="27"/>
       <c r="E229" s="27"/>
@@ -4166,13 +4576,13 @@
     </row>
     <row r="230" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B230" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C230" s="27" t="s">
         <v>214</v>
-      </c>
-      <c r="B230" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C230" s="27" t="s">
-        <v>215</v>
       </c>
       <c r="D230" s="27"/>
       <c r="E230" s="27"/>
@@ -4180,13 +4590,13 @@
     </row>
     <row r="231" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B231" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C231" s="27" t="s">
         <v>269</v>
-      </c>
-      <c r="C231" s="27" t="s">
-        <v>270</v>
       </c>
       <c r="D231" s="27"/>
       <c r="E231" s="27"/>
@@ -4194,13 +4604,13 @@
     </row>
     <row r="232" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B232" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D232" s="27"/>
       <c r="E232" s="27"/>
@@ -4208,13 +4618,13 @@
     </row>
     <row r="233" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B233" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D233" s="27"/>
       <c r="E233" s="27"/>
@@ -4222,13 +4632,13 @@
     </row>
     <row r="234" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B234" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="27"/>
@@ -4236,13 +4646,13 @@
     </row>
     <row r="235" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B235" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D235" s="27"/>
       <c r="E235" s="27"/>
@@ -4250,13 +4660,13 @@
     </row>
     <row r="236" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B236" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D236" s="27"/>
       <c r="E236" s="27"/>
@@ -4264,13 +4674,13 @@
     </row>
     <row r="237" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B237" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D237" s="27"/>
       <c r="E237" s="27"/>
@@ -4281,10 +4691,10 @@
         <v>16</v>
       </c>
       <c r="B238" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D238" s="27"/>
       <c r="E238" s="27"/>
@@ -4295,10 +4705,10 @@
         <v>16</v>
       </c>
       <c r="B239" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D239" s="27"/>
       <c r="E239" s="27"/>
@@ -4309,10 +4719,10 @@
         <v>16</v>
       </c>
       <c r="B240" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D240" s="27"/>
       <c r="E240" s="27"/>
@@ -4323,10 +4733,10 @@
         <v>48</v>
       </c>
       <c r="B241" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D241" s="27"/>
       <c r="E241" s="27"/>
@@ -4337,10 +4747,10 @@
         <v>48</v>
       </c>
       <c r="B242" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D242" s="27"/>
       <c r="E242" s="27"/>
@@ -4351,10 +4761,10 @@
         <v>48</v>
       </c>
       <c r="B243" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D243" s="27"/>
       <c r="E243" s="27"/>
@@ -4365,10 +4775,10 @@
         <v>26</v>
       </c>
       <c r="B244" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D244" s="27"/>
       <c r="E244" s="27"/>
@@ -4379,10 +4789,10 @@
         <v>26</v>
       </c>
       <c r="B245" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D245" s="27"/>
       <c r="E245" s="27"/>
@@ -4393,127 +4803,127 @@
         <v>26</v>
       </c>
       <c r="B246" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D246" s="27"/>
       <c r="E246" s="27"/>
     </row>
     <row r="247" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C247" s="28" t="s">
         <v>279</v>
-      </c>
-      <c r="B247" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C247" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="D247" s="29"/>
       <c r="E247" s="29"/>
     </row>
     <row r="248" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B248" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C248" s="28" t="s">
         <v>279</v>
-      </c>
-      <c r="B248" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C248" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="D248" s="29"/>
       <c r="E248" s="29"/>
     </row>
     <row r="249" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B249" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C249" s="28" t="s">
         <v>279</v>
-      </c>
-      <c r="B249" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C249" s="28" t="s">
-        <v>280</v>
       </c>
       <c r="D249" s="29"/>
       <c r="E249" s="29"/>
     </row>
     <row r="250" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C250" s="28" t="s">
         <v>281</v>
-      </c>
-      <c r="B250" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C250" s="28" t="s">
-        <v>282</v>
       </c>
       <c r="D250" s="29"/>
       <c r="E250" s="29"/>
     </row>
     <row r="251" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B251" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C251" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D251" s="29"/>
       <c r="E251" s="29"/>
     </row>
     <row r="252" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="B252" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C252" s="28" t="s">
         <v>281</v>
-      </c>
-      <c r="B252" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="C252" s="28" t="s">
-        <v>282</v>
       </c>
       <c r="D252" s="29"/>
       <c r="E252" s="29"/>
     </row>
     <row r="253" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B253" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C253" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="B253" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C253" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="29"/>
     </row>
     <row r="254" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="B254" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C254" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="B254" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C254" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="D254" s="29"/>
       <c r="E254" s="29"/>
     </row>
     <row r="255" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B255" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D255" s="29"/>
       <c r="E255" s="29"/>
@@ -4523,10 +4933,10 @@
         <v>29</v>
       </c>
       <c r="B256" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D256" s="29"/>
       <c r="E256" s="29"/>
@@ -4536,10 +4946,10 @@
         <v>29</v>
       </c>
       <c r="B257" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29"/>
@@ -4549,150 +4959,150 @@
         <v>29</v>
       </c>
       <c r="B258" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D258" s="27"/>
       <c r="E258" s="27"/>
     </row>
     <row r="259" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B259" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C259" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B260" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C260" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B261" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="C261" s="30" t="s">
         <v>233</v>
-      </c>
-      <c r="B261" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C261" s="30" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B262" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C262" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B263" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C263" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B264" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C264" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B265" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C265" s="30" t="s">
         <v>202</v>
-      </c>
-      <c r="B265" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="C265" s="30" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B266" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C266" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B267" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B267" s="26" t="s">
+      <c r="C267" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="C267" s="32" t="s">
-        <v>213</v>
       </c>
       <c r="D267" s="30"/>
       <c r="E267" s="30"/>
     </row>
     <row r="268" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B268" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C268" s="32" t="s">
         <v>214</v>
-      </c>
-      <c r="B268" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C268" s="32" t="s">
-        <v>215</v>
       </c>
       <c r="D268" s="30"/>
       <c r="E268" s="30"/>
     </row>
     <row r="269" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B269" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C269" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="B269" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C269" s="32" t="s">
-        <v>217</v>
       </c>
       <c r="D269" s="30"/>
       <c r="E269" s="30"/>
     </row>
     <row r="270" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="B270" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C270" s="32" t="s">
         <v>218</v>
-      </c>
-      <c r="B270" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C270" s="32" t="s">
-        <v>219</v>
       </c>
       <c r="D270" s="30"/>
       <c r="E270" s="30"/>
@@ -4702,7 +5112,7 @@
         <v>14</v>
       </c>
       <c r="B271" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C271" s="32" t="s">
         <v>59</v>
@@ -4715,49 +5125,49 @@
         <v>50</v>
       </c>
       <c r="B272" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D272" s="30"/>
       <c r="E272" s="30"/>
     </row>
     <row r="273" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B273" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C273" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="B273" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C273" s="32" t="s">
-        <v>222</v>
       </c>
       <c r="D273" s="30"/>
       <c r="E273" s="30"/>
     </row>
     <row r="274" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B274" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C274" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="B274" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C274" s="32" t="s">
-        <v>224</v>
       </c>
       <c r="D274" s="30"/>
       <c r="E274" s="30"/>
     </row>
     <row r="275" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B275" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C275" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="B275" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C275" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="D275" s="30"/>
       <c r="E275" s="30"/>
@@ -4767,71 +5177,71 @@
         <v>29</v>
       </c>
       <c r="B276" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D276" s="30"/>
       <c r="E276" s="30"/>
     </row>
     <row r="277" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B277" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="B277" s="26" t="s">
+      <c r="C277" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="C277" s="32" t="s">
-        <v>230</v>
       </c>
       <c r="D277" s="30"/>
       <c r="E277" s="30"/>
     </row>
     <row r="278" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B278" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C278" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="B278" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C278" s="32" t="s">
-        <v>232</v>
       </c>
       <c r="D278" s="30"/>
       <c r="E278" s="30"/>
     </row>
     <row r="279" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B279" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C279" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="B279" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C279" s="32" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B280" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B281" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C281" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="B281" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="C281" s="32" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4839,10 +5249,10 @@
         <v>92</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C282" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4850,10 +5260,10 @@
         <v>88</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,10 +5271,10 @@
         <v>90</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C284" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,10 +5282,10 @@
         <v>86</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C285" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4883,21 +5293,21 @@
         <v>0</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C286" s="31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="31" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C287" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4905,237 +5315,237 @@
         <v>95</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C288" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C289" s="31" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="C290" s="33" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D290" s="27"/>
       <c r="E290" s="27"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B291" s="27" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="C291" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D291" s="27"/>
       <c r="E291" s="27"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B292" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C292" s="33" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D292" s="27"/>
       <c r="E292" s="27"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B293" s="27" t="s">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="C293" s="33" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D293" s="27"/>
       <c r="E293" s="27"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B294" s="27" t="s">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="C294" s="33" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D294" s="27"/>
       <c r="E294" s="27"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B295" s="27" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C295" s="33" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D295" s="27"/>
       <c r="E295" s="27"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B296" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C296" s="33" t="s">
         <v>137</v>
-      </c>
-      <c r="C296" s="33" t="s">
-        <v>138</v>
       </c>
       <c r="D296" s="27"/>
       <c r="E296" s="27"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B297" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C297" s="33" t="s">
         <v>139</v>
-      </c>
-      <c r="C297" s="33" t="s">
-        <v>140</v>
       </c>
       <c r="D297" s="27"/>
       <c r="E297" s="27"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B298" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B298" s="27" t="s">
+      <c r="C298" s="33" t="s">
         <v>142</v>
-      </c>
-      <c r="C298" s="33" t="s">
-        <v>143</v>
       </c>
       <c r="D298" s="27"/>
       <c r="E298" s="27"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B299" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C299" s="33" t="s">
         <v>145</v>
-      </c>
-      <c r="C299" s="33" t="s">
-        <v>146</v>
       </c>
       <c r="D299" s="27"/>
       <c r="E299" s="27"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C300" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D300" s="27"/>
       <c r="E300" s="27"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C301" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D301" s="27"/>
       <c r="E301" s="27"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B302" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C302" s="33" t="s">
         <v>151</v>
-      </c>
-      <c r="B302" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C302" s="33" t="s">
-        <v>152</v>
       </c>
       <c r="D302" s="27"/>
       <c r="E302" s="27"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B303" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C303" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D303" s="27"/>
       <c r="E303" s="27"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B304" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C304" s="33" t="s">
         <v>155</v>
-      </c>
-      <c r="B304" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C304" s="33" t="s">
-        <v>156</v>
       </c>
       <c r="D304" s="27"/>
       <c r="E304" s="27"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C305" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D305" s="27"/>
       <c r="E305" s="27"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C306" s="33" t="s">
         <v>30</v>
@@ -5145,10 +5555,10 @@
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B307" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C307" s="33" t="s">
         <v>30</v>
@@ -5158,202 +5568,202 @@
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B308" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C308" s="33" t="s">
         <v>160</v>
-      </c>
-      <c r="B308" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C308" s="33" t="s">
-        <v>161</v>
       </c>
       <c r="D308" s="27"/>
       <c r="E308" s="27"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B309" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C309" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="27"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B310" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C310" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="B310" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C310" s="33" t="s">
-        <v>164</v>
       </c>
       <c r="D310" s="27"/>
       <c r="E310" s="27"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B311" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C311" s="33" t="s">
         <v>163</v>
-      </c>
-      <c r="B311" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C311" s="33" t="s">
-        <v>164</v>
       </c>
       <c r="D311" s="27"/>
       <c r="E311" s="27"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B312" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C312" s="33" t="s">
         <v>166</v>
-      </c>
-      <c r="B312" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C312" s="33" t="s">
-        <v>167</v>
       </c>
       <c r="D312" s="27"/>
       <c r="E312" s="27"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="35" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C313" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D313" s="27"/>
       <c r="E313" s="27"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="B314" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C314" s="33" t="s">
         <v>170</v>
-      </c>
-      <c r="B314" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C314" s="33" t="s">
-        <v>171</v>
       </c>
       <c r="D314" s="27"/>
       <c r="E314" s="27"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B315" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C315" s="33" t="s">
         <v>170</v>
-      </c>
-      <c r="B315" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C315" s="33" t="s">
-        <v>171</v>
       </c>
       <c r="D315" s="27"/>
       <c r="E315" s="27"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B316" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C316" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="B316" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C316" s="33" t="s">
-        <v>173</v>
       </c>
       <c r="D316" s="27"/>
       <c r="E316" s="27"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="B317" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C317" s="33" t="s">
         <v>172</v>
-      </c>
-      <c r="B317" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="C317" s="33" t="s">
-        <v>173</v>
       </c>
       <c r="D317" s="29"/>
       <c r="E317" s="29"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B318" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="B318" s="27" t="s">
+      <c r="C318" s="33" t="s">
         <v>175</v>
-      </c>
-      <c r="C318" s="33" t="s">
-        <v>176</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B319" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C319" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D319" s="29"/>
       <c r="E319" s="29"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B320" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C320" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="B320" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C320" s="39" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B321" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="C321" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="C321" s="39" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B322" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C322" s="40" t="s">
         <v>180</v>
-      </c>
-      <c r="B322" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="C322" s="40" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B323" s="0" t="s">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="C323" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5361,43 +5771,43 @@
         <v>92</v>
       </c>
       <c r="B324" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C324" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="43" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B325" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C325" s="44" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B326" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C326" s="42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="41" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B327" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C327" s="42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5405,54 +5815,54 @@
         <v>92</v>
       </c>
       <c r="B328" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C328" s="42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="43" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B329" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C329" s="44" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="41" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B330" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C330" s="42" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="41" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B331" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C331" s="42" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C332" s="27" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D332" s="27"/>
       <c r="E332" s="27"/>
@@ -5460,13 +5870,13 @@
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B333" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C333" s="27" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D333" s="27"/>
       <c r="E333" s="27"/>
@@ -5474,13 +5884,13 @@
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B334" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C334" s="27" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D334" s="27"/>
       <c r="E334" s="27"/>
@@ -5488,13 +5898,13 @@
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B335" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C335" s="27" t="s">
         <v>309</v>
-      </c>
-      <c r="C335" s="27" t="s">
-        <v>315</v>
       </c>
       <c r="D335" s="27"/>
       <c r="E335" s="27"/>
@@ -5502,13 +5912,13 @@
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="27" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C336" s="27" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D336" s="27"/>
       <c r="E336" s="27"/>
@@ -5516,13 +5926,13 @@
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B337" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C337" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D337" s="27"/>
       <c r="E337" s="27"/>
@@ -5530,13 +5940,13 @@
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B338" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C338" s="27" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D338" s="27"/>
       <c r="E338" s="27"/>
@@ -5544,486 +5954,2270 @@
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B339" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C339" s="27" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D339" s="27"/>
       <c r="E339" s="27"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B340" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C340" s="27" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D340" s="27"/>
       <c r="E340" s="27"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B341" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C341" s="27" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D341" s="27"/>
       <c r="E341" s="27"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B342" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C342" s="27" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D342" s="27"/>
       <c r="E342" s="27"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B343" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="B343" s="27" t="s">
-        <v>322</v>
-      </c>
       <c r="C343" s="27" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D343" s="27"/>
       <c r="E343" s="27"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B344" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C344" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D344" s="27"/>
       <c r="E344" s="27"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="27" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B345" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C345" s="27" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D345" s="27"/>
       <c r="E345" s="27"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="27" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B346" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C346" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D346" s="27"/>
       <c r="E346" s="27"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B347" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C347" s="27" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D347" s="27"/>
       <c r="E347" s="27"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="27" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B348" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C348" s="27" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D348" s="27"/>
       <c r="E348" s="27"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C349" s="27" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D349" s="27"/>
       <c r="E349" s="27"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="27" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B350" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C350" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D350" s="27"/>
       <c r="E350" s="27"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B351" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C351" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D351" s="27"/>
       <c r="E351" s="27"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B352" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="B352" s="27" t="s">
-        <v>326</v>
-      </c>
       <c r="C352" s="27" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D352" s="27"/>
       <c r="E352" s="27"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C353" s="28" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D353" s="27"/>
       <c r="E353" s="27"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="29" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B354" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C354" s="28" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D354" s="29"/>
       <c r="E354" s="29"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="29" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C355" s="28" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D355" s="29"/>
       <c r="E355" s="29"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="29" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C356" s="28" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D356" s="29"/>
       <c r="E356" s="29"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="29" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B357" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C357" s="28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D357" s="29"/>
       <c r="E357" s="29"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C358" s="28" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D358" s="29"/>
       <c r="E358" s="29"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B359" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C359" s="28" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D359" s="27"/>
       <c r="E359" s="27"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="29" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B360" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C360" s="28" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D360" s="29"/>
       <c r="E360" s="29"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="29" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B361" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C361" s="28" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D361" s="29"/>
       <c r="E361" s="29"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="29" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B362" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C362" s="28" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="D362" s="29"/>
       <c r="E362" s="29"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="29" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B363" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C363" s="28" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D363" s="29"/>
       <c r="E363" s="29"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B364" s="27" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C364" s="28" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D364" s="29"/>
       <c r="E364" s="29"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B365" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C365" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D365" s="27"/>
       <c r="E365" s="27"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="29" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B366" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C366" s="28" t="s">
         <v>326</v>
-      </c>
-      <c r="C366" s="28" t="s">
-        <v>332</v>
       </c>
       <c r="D366" s="29"/>
       <c r="E366" s="29"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="29" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B367" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C367" s="28" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D367" s="29"/>
       <c r="E367" s="29"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="29" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B368" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C368" s="28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D368" s="29"/>
       <c r="E368" s="29"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="29" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B369" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C369" s="28" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D369" s="29"/>
       <c r="E369" s="29"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="29" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B370" s="27" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C370" s="28" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D370" s="29"/>
       <c r="E370" s="29"/>
     </row>
     <row r="371" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="45" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B371" s="45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C371" s="45" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B372" s="45" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C372" s="45" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="45" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B373" s="45" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C373" s="45" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="45" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B374" s="45" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C374" s="45" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B375" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C375" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="B376" s="45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C376" s="45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C377" s="47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C378" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B375" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="C375" s="45" t="s">
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C379" s="47" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="0" t="s">
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C380" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C381" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C382" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C383" s="47" t="s">
         <v>348</v>
       </c>
-      <c r="B376" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="C376" s="45" t="s">
+    </row>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C384" s="47" t="s">
         <v>350</v>
       </c>
     </row>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C385" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C386" s="48" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B387" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C387" s="47" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B388" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C388" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B389" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C389" s="47" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B390" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C390" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B391" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C391" s="47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B392" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C392" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B393" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C393" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B394" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C394" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B395" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C395" s="47" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B396" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C396" s="48" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B397" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C397" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B398" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C398" s="47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B399" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C399" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B400" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C400" s="47" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B401" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C401" s="47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B402" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C402" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B403" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C403" s="47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B404" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C404" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B405" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C405" s="47" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B406" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C406" s="48" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B407" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C407" s="47" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B408" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C408" s="47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B409" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C409" s="47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B410" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C410" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B411" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C411" s="47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B412" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C412" s="47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B413" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C413" s="47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B414" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C414" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B415" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C415" s="47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B416" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="C416" s="48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B417" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C417" s="47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B418" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C418" s="47" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B419" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C419" s="47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B420" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C420" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B421" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C421" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B422" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C422" s="47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B423" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C423" s="47" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B424" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C424" s="47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B425" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C425" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B426" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C426" s="48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B427" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C427" s="47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B428" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C428" s="47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B429" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C429" s="47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B430" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C430" s="47" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B431" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C431" s="47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B432" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C432" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B433" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C433" s="47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B434" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C434" s="47" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B435" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C435" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B436" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C436" s="48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B437" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C437" s="47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B438" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C438" s="47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B439" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C439" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B440" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C440" s="47" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B441" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C441" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B442" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C442" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B443" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C443" s="47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B444" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C444" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B445" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C445" s="47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B446" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C446" s="48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B447" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C447" s="47" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B448" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C448" s="47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="B449" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C449" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="B450" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C450" s="47" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="B451" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C451" s="47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="B452" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C452" s="47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B453" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C453" s="47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="B454" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C454" s="47" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B455" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C455" s="47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="B456" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C456" s="48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B457" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C457" s="47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B458" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C458" s="47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B459" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C459" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B460" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C460" s="47" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B461" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C461" s="47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B462" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C462" s="47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B463" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C463" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B464" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C464" s="47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B465" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C465" s="47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B466" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C466" s="47" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B467" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C467" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B468" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C468" s="47" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B469" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C469" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B470" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C470" s="47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B471" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C471" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B472" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C472" s="47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B473" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C473" s="47" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B474" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C474" s="47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B475" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C475" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B476" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C476" s="48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B477" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C477" s="47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B478" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C478" s="47" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B479" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C479" s="47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B480" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C480" s="47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B481" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C481" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B482" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C482" s="47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B483" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C483" s="47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B484" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C484" s="47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B485" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C485" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B486" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C486" s="48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B487" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C487" s="47" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B488" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C488" s="47" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B489" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C489" s="47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B490" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C490" s="47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B491" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C491" s="47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B492" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C492" s="47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B493" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C493" s="47" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B494" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C494" s="47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B495" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C495" s="47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B496" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="C496" s="48" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B497" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C497" s="47" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A498" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B498" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C498" s="47" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A499" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B499" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C499" s="47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A500" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B500" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C500" s="47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A501" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B501" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C501" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B502" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C502" s="47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B503" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C503" s="47" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B504" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C504" s="47" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B505" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C505" s="47" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B506" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C506" s="48" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B507" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C507" s="47" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B508" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C508" s="47" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B509" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C509" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B510" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C510" s="47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B511" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C511" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B512" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C512" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B513" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C513" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B514" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C514" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B515" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C515" s="47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B516" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C516" s="48" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B517" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C517" s="47" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B518" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C518" s="47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B519" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C519" s="47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B520" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C520" s="47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B521" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" s="47" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B522" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" s="47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B523" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C523" s="47" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B524" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" s="47" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B525" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C525" s="47" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B526" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C526" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B527" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C527" s="47" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="B528" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C528" s="47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="B529" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C529" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B530" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C530" s="47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="B531" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C531" s="47" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="B532" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C532" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="B533" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C533" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="46" t="s">
+        <v>415</v>
+      </c>
+      <c r="B534" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C534" s="47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="B535" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C535" s="47" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B536" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C536" s="48" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="52"/>
+      <c r="B537" s="53"/>
+      <c r="C537" s="54"/>
+      <c r="D537" s="47"/>
+    </row>
+    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
+++ b/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="980" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="455">
   <si>
     <t xml:space="preserve">EOE-081</t>
   </si>
@@ -1213,7 +1213,7 @@
     <t xml:space="preserve">DR.M.K.GOYAL</t>
   </si>
   <si>
-    <t xml:space="preserve">DR.ABHISHEK PATHAK     S/I</t>
+    <t xml:space="preserve">DR.ABHISHEK PATHAK</t>
   </si>
   <si>
     <t xml:space="preserve">DR.PARUL VERMA</t>
@@ -1256,7 +1256,7 @@
     <t xml:space="preserve">NAS-205</t>
   </si>
   <si>
-    <t xml:space="preserve">DR.SANDEEP GUPTA    S/I</t>
+    <t xml:space="preserve">DR.SANDEEP GUPTA</t>
   </si>
   <si>
     <t xml:space="preserve">NME-202</t>
@@ -1309,9 +1309,6 @@
   </si>
   <si>
     <t xml:space="preserve">DR.NEETU SHARMA    S/I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DR.SANDEEP GUPTA</t>
   </si>
   <si>
     <t xml:space="preserve">MR.GAJESH CHAUHAN</t>
@@ -2014,16 +2011,16 @@
   </sheetPr>
   <dimension ref="A2:F538"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A408" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B312" activeCellId="0" sqref="B312"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A244" activeCellId="0" sqref="A244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,9 +4725,9 @@
       <c r="E240" s="27"/>
       <c r="F240" s="27"/>
     </row>
-    <row r="241" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="26" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B241" s="27" t="s">
         <v>264</v>
@@ -4742,9 +4739,9 @@
       <c r="E241" s="27"/>
       <c r="F241" s="27"/>
     </row>
-    <row r="242" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="26" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B242" s="27" t="s">
         <v>266</v>
@@ -4756,9 +4753,9 @@
       <c r="E242" s="27"/>
       <c r="F242" s="27"/>
     </row>
-    <row r="243" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="26" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B243" s="27" t="s">
         <v>268</v>
@@ -7575,7 +7572,7 @@
         <v>268</v>
       </c>
       <c r="C480" s="47" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7586,7 +7583,7 @@
         <v>268</v>
       </c>
       <c r="C481" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7597,7 +7594,7 @@
         <v>268</v>
       </c>
       <c r="C482" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7608,7 +7605,7 @@
         <v>268</v>
       </c>
       <c r="C483" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7619,7 +7616,7 @@
         <v>268</v>
       </c>
       <c r="C484" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7630,7 +7627,7 @@
         <v>268</v>
       </c>
       <c r="C485" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7641,7 +7638,7 @@
         <v>268</v>
       </c>
       <c r="C486" s="48" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7652,7 +7649,7 @@
         <v>303</v>
       </c>
       <c r="C487" s="47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7674,7 +7671,7 @@
         <v>303</v>
       </c>
       <c r="C489" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7707,7 +7704,7 @@
         <v>303</v>
       </c>
       <c r="C492" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7718,7 +7715,7 @@
         <v>303</v>
       </c>
       <c r="C493" s="47" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7729,7 +7726,7 @@
         <v>303</v>
       </c>
       <c r="C494" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,7 +7748,7 @@
         <v>303</v>
       </c>
       <c r="C496" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7762,7 +7759,7 @@
         <v>316</v>
       </c>
       <c r="C497" s="47" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7784,7 +7781,7 @@
         <v>316</v>
       </c>
       <c r="C499" s="47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7817,7 +7814,7 @@
         <v>316</v>
       </c>
       <c r="C502" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7828,7 +7825,7 @@
         <v>316</v>
       </c>
       <c r="C503" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7839,7 +7836,7 @@
         <v>316</v>
       </c>
       <c r="C504" s="47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7861,7 +7858,7 @@
         <v>316</v>
       </c>
       <c r="C506" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7872,7 +7869,7 @@
         <v>320</v>
       </c>
       <c r="C507" s="47" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7883,7 +7880,7 @@
         <v>320</v>
       </c>
       <c r="C508" s="47" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7894,7 +7891,7 @@
         <v>320</v>
       </c>
       <c r="C509" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7905,7 +7902,7 @@
         <v>320</v>
       </c>
       <c r="C510" s="47" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7916,7 +7913,7 @@
         <v>320</v>
       </c>
       <c r="C511" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7927,7 +7924,7 @@
         <v>320</v>
       </c>
       <c r="C512" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,7 +7935,7 @@
         <v>320</v>
       </c>
       <c r="C513" s="47" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,7 +7946,7 @@
         <v>320</v>
       </c>
       <c r="C514" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7960,7 +7957,7 @@
         <v>320</v>
       </c>
       <c r="C515" s="47" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7971,7 +7968,7 @@
         <v>320</v>
       </c>
       <c r="C516" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7982,7 +7979,7 @@
         <v>6</v>
       </c>
       <c r="C517" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,7 +8001,7 @@
         <v>6</v>
       </c>
       <c r="C519" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8015,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="C520" s="47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8026,7 +8023,7 @@
         <v>6</v>
       </c>
       <c r="C521" s="47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="C522" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8048,7 +8045,7 @@
         <v>6</v>
       </c>
       <c r="C523" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8059,7 +8056,7 @@
         <v>6</v>
       </c>
       <c r="C524" s="47" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8070,7 +8067,7 @@
         <v>6</v>
       </c>
       <c r="C525" s="47" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8081,7 +8078,7 @@
         <v>6</v>
       </c>
       <c r="C526" s="48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8092,7 +8089,7 @@
         <v>28</v>
       </c>
       <c r="C527" s="47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8125,7 +8122,7 @@
         <v>28</v>
       </c>
       <c r="C530" s="47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8136,7 +8133,7 @@
         <v>28</v>
       </c>
       <c r="C531" s="47" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8147,7 +8144,7 @@
         <v>28</v>
       </c>
       <c r="C532" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8169,7 +8166,7 @@
         <v>28</v>
       </c>
       <c r="C534" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8180,7 +8177,7 @@
         <v>28</v>
       </c>
       <c r="C535" s="47" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,7 +8188,7 @@
         <v>28</v>
       </c>
       <c r="C536" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
+++ b/Section-Faculty Information/subject_section_faculty_even_sem_2016.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1599" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="456">
   <si>
     <t xml:space="preserve">EOE-081</t>
   </si>
@@ -1398,6 +1398,9 @@
   <si>
     <t xml:space="preserve">MR.SHUBHAM CHAUDHARY
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.Pooja</t>
   </si>
 </sst>
 </file>
@@ -1504,10 +1507,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1524,7 +1526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1680,6 +1682,21 @@
       <bottom style="hair"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF313739"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF313739"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF313739"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF313739"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1710,7 +1727,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1919,16 +1936,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1994,7 +2019,7 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF313739"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
@@ -2009,18 +2034,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:F538"/>
+  <dimension ref="A2:H545"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A238" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A244" activeCellId="0" sqref="A244"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A533" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C546" activeCellId="0" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8191,19 +8216,106 @@
         <v>454</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="52"/>
-      <c r="B537" s="53"/>
-      <c r="C537" s="54"/>
-      <c r="D537" s="47"/>
-    </row>
-    <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="537" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A537" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B537" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C537" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D537" s="54"/>
+      <c r="F537" s="55"/>
+      <c r="H537" s="56"/>
+    </row>
+    <row r="538" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A538" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B538" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C538" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="D538" s="54"/>
+      <c r="F538" s="55"/>
+      <c r="H538" s="56"/>
+    </row>
+    <row r="539" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A539" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B539" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C539" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D539" s="54"/>
+      <c r="F539" s="55"/>
+      <c r="H539" s="56"/>
+    </row>
+    <row r="540" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A540" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B540" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C540" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D540" s="54"/>
+      <c r="F540" s="55"/>
+      <c r="H540" s="56"/>
+    </row>
+    <row r="541" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B541" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C541" s="52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B542" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C542" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B543" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C543" s="52" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B544" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C544" s="52" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
